--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="1940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="7240" yWindow="2760" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>keep</t>
   </si>
@@ -67,60 +67,6 @@
   </si>
   <si>
     <t>academy</t>
-  </si>
-  <si>
-    <t>城堡</t>
-  </si>
-  <si>
-    <t>瞭望塔</t>
-  </si>
-  <si>
-    <t>资源仓库</t>
-  </si>
-  <si>
-    <t>龙巢</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>材料库房</t>
-  </si>
-  <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>铁匠铺</t>
-  </si>
-  <si>
-    <t>锻造工坊</t>
-  </si>
-  <si>
-    <t>石匠工坊</t>
-  </si>
-  <si>
-    <t>锯木工房</t>
-  </si>
-  <si>
-    <t>磨坊</t>
-  </si>
-  <si>
-    <t>工具作坊</t>
-  </si>
-  <si>
-    <t>市政厅</t>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>dragonEyrie</t>
@@ -143,30 +89,6 @@
   </si>
   <si>
     <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>贸易行会</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎手大厅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>马厩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>学院</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练场</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -330,7 +252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -345,6 +267,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -437,7 +365,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="86">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -480,6 +408,9 @@
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -515,6 +446,9 @@
     <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -967,7 +901,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -979,254 +913,374 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="6"/>
     </row>
   </sheetData>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="3040" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6560" yWindow="21640" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="184">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -614,10 +614,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>resource:woodClass_2:1:15,resource:stoneClass_2:1:15,resource:ironClass_2:1:15,resource:foodClass_2:1:15,resource:coinClass_1:1:15,speedup:speedup_1:3:15,speedup:speedup_2:1:15</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>resource:woodClass_3:1:14,resource:stoneClass_3:1:14,resource:ironClass_3:1:14,resource:foodClass_3:1:14,resource:coinClass_2:1:11,resource:casinoTokenClass_1:1:11,speedup:speedup_3:2:11,speedup:speedup_4:1:11</t>
   </si>
   <si>
@@ -625,6 +621,12 @@
   </si>
   <si>
     <t>resource:woodClass_6:1:14,resource:stoneClass_6:1:14,resource:ironClass_6:1:14,resource:foodClass_6:1:14,resource:coinClass_5:1:11,resource:casinoTokenClass_2:2:11,speedup:speedup_5:3:11,speedup:speedup_6:2:11</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:5:14,dragonMaterials:redCrystal_1:5:14,dragonMaterials:blueCrystal_1:5:14,dragonMaterials:greenCrystal_1:5:14,dragonMaterials:runes_1:5:14,dragonMaterials:ingo_2:5:3,dragonMaterials:redSoul_2:2:4,dragonMaterials:blueSoul_2:2:4,dragonMaterials:greenSoul_2:2:4,dragonMaterials:redCrystal_2:2:4,dragonMaterials:blueCrystal_2:2:4,dragonMaterials:greenCrystal_2:2:4,dragonMaterials:runes_2:2:3</t>
+  </si>
+  <si>
+    <t>resource:woodClass_2:1:15,resource:stoneClass_2:1:15,resource:ironClass_2:1:15,resource:foodClass_2:1:15,resource:coinClass_1:1:15,speedup:speedup_1:3:15,speedup:speedup_2:1:10</t>
   </si>
 </sst>
 </file>
@@ -780,7 +782,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="156">
+  <cellStyleXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -795,6 +797,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -968,11 +976,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="156">
+  <cellStyles count="162">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1053,6 +1061,9 @@
     <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1126,6 +1137,9 @@
     <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1577,13 +1591,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="20.6640625" style="7"/>
+    <col min="3" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
     <col min="5" max="5" width="20.6640625" style="1"/>
     <col min="6" max="6" width="20.6640625" style="5"/>
@@ -1594,7 +1610,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1617,7 +1633,7 @@
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="2">
@@ -1640,7 +1656,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="1">
@@ -1663,7 +1679,7 @@
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="1">
@@ -1686,7 +1702,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="2">
@@ -1709,7 +1725,7 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="1">
@@ -1732,7 +1748,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1">
@@ -1755,7 +1771,7 @@
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>100</v>
       </c>
       <c r="C8" s="2">
@@ -1778,7 +1794,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>500</v>
       </c>
       <c r="C9" s="1">
@@ -1801,7 +1817,7 @@
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>1000</v>
       </c>
       <c r="C10" s="1">
@@ -1824,7 +1840,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>100</v>
       </c>
       <c r="C11" s="2">
@@ -1847,7 +1863,7 @@
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <v>500</v>
       </c>
       <c r="C12" s="1">
@@ -1870,7 +1886,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>1000</v>
       </c>
       <c r="C13" s="1">
@@ -1893,7 +1909,7 @@
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="7">
         <v>100</v>
       </c>
       <c r="C14" s="2">
@@ -1916,7 +1932,7 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>500</v>
       </c>
       <c r="C15" s="1">
@@ -1939,7 +1955,7 @@
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="7">
         <v>1000</v>
       </c>
       <c r="C16" s="1">
@@ -1962,7 +1978,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
         <v>20</v>
       </c>
       <c r="C17" s="2">
@@ -1985,7 +2001,7 @@
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="7">
         <v>50</v>
       </c>
       <c r="C18" s="1">
@@ -2008,7 +2024,7 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <v>100</v>
       </c>
       <c r="C19" s="1">
@@ -2031,7 +2047,7 @@
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="7">
         <v>100</v>
       </c>
       <c r="C20" s="2">
@@ -2054,7 +2070,7 @@
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <v>500</v>
       </c>
       <c r="C21" s="1">
@@ -2077,7 +2093,7 @@
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>1000</v>
       </c>
       <c r="C22" s="1">
@@ -2100,6 +2116,9 @@
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B23" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="C23" s="2">
         <v>22</v>
       </c>
@@ -2120,7 +2139,9 @@
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -2141,6 +2162,9 @@
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B25" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
@@ -2161,8 +2185,8 @@
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>179</v>
+      <c r="B26" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
@@ -2184,8 +2208,8 @@
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>180</v>
+      <c r="B27" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -2207,8 +2231,8 @@
       <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>181</v>
+      <c r="B28" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -2230,8 +2254,8 @@
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>182</v>
+      <c r="B29" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
@@ -2253,7 +2277,7 @@
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="1">
@@ -2276,7 +2300,7 @@
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="1">
@@ -2299,7 +2323,7 @@
       <c r="A32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="2">
@@ -2322,7 +2346,7 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="7">
         <v>30</v>
       </c>
       <c r="C33" s="1">
@@ -2345,7 +2369,7 @@
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="7">
         <v>60</v>
       </c>
       <c r="C34" s="1">
@@ -2368,7 +2392,7 @@
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="7">
         <v>1440</v>
       </c>
       <c r="C35" s="2">
@@ -2391,7 +2415,7 @@
       <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="7">
         <v>10080</v>
       </c>
       <c r="C36" s="1">
@@ -2414,7 +2438,7 @@
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="7">
         <v>43200</v>
       </c>
       <c r="C37" s="1">
@@ -2437,7 +2461,7 @@
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="7">
         <v>100</v>
       </c>
       <c r="C38" s="2">
@@ -2460,7 +2484,7 @@
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="7">
         <v>300</v>
       </c>
       <c r="C39" s="1">
@@ -2483,7 +2507,7 @@
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="7">
         <v>1000</v>
       </c>
       <c r="C40" s="1">
@@ -2506,7 +2530,7 @@
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="7">
         <v>5000</v>
       </c>
       <c r="C41" s="2">

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="186">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -627,6 +627,12 @@
   </si>
   <si>
     <t>resource:woodClass_2:1:15,resource:stoneClass_2:1:15,resource:ironClass_2:1:15,resource:foodClass_2:1:15,resource:coinClass_1:1:15,speedup:speedup_1:3:15,speedup:speedup_2:1:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:5:12,dragonMaterials:redSoul_2:5:10,dragonMaterials:blueSoul_2:5:10,dragonMaterials:greenSoul_2:5:10,dragonMaterials:redCrystal_2:5:11,dragonMaterials:blueCrystal_2:5:11,dragonMaterials:greenCrystal_2:5:11,dragonMaterials:runes_2:5:11,dragonMaterials:ingo_3:2:1,dragonMaterials:redSoul_3:2:2,dragonMaterials:blueSoul_3:2:2,dragonMaterials:greenSoul_3:2:2,dragonMaterials:redCrystal_3:2:2,dragonMaterials:blueCrystal_3:2:2,dragonMaterials:greenCrystal_3:2:2,dragonMaterials:runes_3:2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:12,dragonMaterials:redSoul_3:5:10,dragonMaterials:blueSoul_3:5:10,dragonMaterials:greenSoul_3:5:10,dragonMaterials:redCrystal_3:5:11,dragonMaterials:blueCrystal_3:5:11,dragonMaterials:greenCrystal_3:5:11,dragonMaterials:runes_3:5:11,dragonMaterials:ingo_4:2:1,dragonMaterials:redSoul_4:2:2,dragonMaterials:blueSoul_4:2:2,dragonMaterials:greenSoul_4:2:2,dragonMaterials:redCrystal_4:2:2,dragonMaterials:blueCrystal_4:2:2,dragonMaterials:greenCrystal_4:2:2,dragonMaterials:runes_4:2:1</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1598,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2140,7 +2146,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -2163,7 +2169,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="21640" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6780" yWindow="21820" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>movingConstruction </t>
-  </si>
-  <si>
     <t>torch</t>
   </si>
   <si>
@@ -633,6 +630,10 @@
   </si>
   <si>
     <t>dragonMaterials:ingo_3:5:12,dragonMaterials:redSoul_3:5:10,dragonMaterials:blueSoul_3:5:10,dragonMaterials:greenSoul_3:5:10,dragonMaterials:redCrystal_3:5:11,dragonMaterials:blueCrystal_3:5:11,dragonMaterials:greenCrystal_3:5:11,dragonMaterials:runes_3:5:11,dragonMaterials:ingo_4:2:1,dragonMaterials:redSoul_4:2:2,dragonMaterials:blueSoul_4:2:2,dragonMaterials:greenSoul_4:2:2,dragonMaterials:redCrystal_4:2:2,dragonMaterials:blueCrystal_4:2:2,dragonMaterials:greenCrystal_4:2:2,dragonMaterials:runes_4:2:1</t>
+  </si>
+  <si>
+    <t>movingConstruction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,7 +789,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="162">
+  <cellStyleXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -803,6 +804,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -986,7 +991,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="162">
+  <cellStyles count="166">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1070,6 +1075,8 @@
     <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1146,6 +1153,8 @@
     <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1597,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1617,42 +1626,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -1660,22 +1669,22 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -1683,22 +1692,22 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
@@ -1706,22 +1715,22 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -1729,22 +1738,22 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -1752,22 +1761,22 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -1775,7 +1784,7 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
         <v>100</v>
@@ -1784,13 +1793,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1">
         <v>200</v>
@@ -1798,7 +1807,7 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7">
         <v>500</v>
@@ -1807,13 +1816,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>200</v>
@@ -1821,7 +1830,7 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7">
         <v>1000</v>
@@ -1830,13 +1839,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>200</v>
@@ -1844,7 +1853,7 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7">
         <v>100</v>
@@ -1853,13 +1862,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
         <v>200</v>
@@ -1867,7 +1876,7 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7">
         <v>500</v>
@@ -1876,13 +1885,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1">
         <v>200</v>
@@ -1890,7 +1899,7 @@
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>1000</v>
@@ -1899,13 +1908,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>200</v>
@@ -1913,7 +1922,7 @@
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7">
         <v>100</v>
@@ -1922,13 +1931,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1">
         <v>200</v>
@@ -1936,7 +1945,7 @@
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7">
         <v>500</v>
@@ -1945,13 +1954,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1">
         <v>200</v>
@@ -1959,7 +1968,7 @@
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7">
         <v>1000</v>
@@ -1968,13 +1977,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1">
         <v>200</v>
@@ -1982,7 +1991,7 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7">
         <v>20</v>
@@ -1991,13 +2000,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1">
         <v>200</v>
@@ -2005,7 +2014,7 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7">
         <v>50</v>
@@ -2014,13 +2023,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1">
         <v>200</v>
@@ -2028,7 +2037,7 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7">
         <v>100</v>
@@ -2037,13 +2046,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1">
         <v>200</v>
@@ -2051,7 +2060,7 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7">
         <v>100</v>
@@ -2060,13 +2069,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1">
         <v>200</v>
@@ -2074,7 +2083,7 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7">
         <v>500</v>
@@ -2083,13 +2092,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1">
         <v>200</v>
@@ -2097,7 +2106,7 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7">
         <v>1000</v>
@@ -2106,13 +2115,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1">
         <v>200</v>
@@ -2120,22 +2129,22 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1">
         <v>200</v>
@@ -2143,22 +2152,22 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1">
         <v>200</v>
@@ -2166,22 +2175,22 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="1">
         <v>200</v>
@@ -2189,22 +2198,22 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1">
         <v>200</v>
@@ -2212,22 +2221,22 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="1">
         <v>200</v>
@@ -2235,22 +2244,22 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1">
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="1">
         <v>200</v>
@@ -2258,22 +2267,22 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1">
         <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="1">
         <v>200</v>
@@ -2281,22 +2290,22 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="1">
         <v>200</v>
@@ -2304,22 +2313,22 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1">
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="1">
         <v>200</v>
@@ -2327,22 +2336,22 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="1">
         <v>200</v>
@@ -2350,7 +2359,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7">
         <v>30</v>
@@ -2359,13 +2368,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="1">
         <v>200</v>
@@ -2373,7 +2382,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7">
         <v>60</v>
@@ -2382,13 +2391,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34" s="1">
         <v>200</v>
@@ -2396,7 +2405,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7">
         <v>1440</v>
@@ -2405,13 +2414,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G35" s="1">
         <v>200</v>
@@ -2419,7 +2428,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7">
         <v>10080</v>
@@ -2428,13 +2437,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="1">
         <v>200</v>
@@ -2442,7 +2451,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7">
         <v>43200</v>
@@ -2451,13 +2460,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1">
         <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="1">
         <v>200</v>
@@ -2465,7 +2474,7 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7">
         <v>100</v>
@@ -2474,13 +2483,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G38" s="1">
         <v>200</v>
@@ -2488,7 +2497,7 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7">
         <v>300</v>
@@ -2497,13 +2506,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="1">
         <v>200</v>
@@ -2511,7 +2520,7 @@
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7">
         <v>1000</v>
@@ -2520,13 +2529,13 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1">
         <v>10</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="1">
         <v>200</v>
@@ -2534,7 +2543,7 @@
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="7">
         <v>5000</v>
@@ -2543,13 +2552,13 @@
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1">
         <v>10</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="1">
         <v>200</v>
@@ -2589,42 +2598,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -2632,22 +2641,22 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -2655,22 +2664,22 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
@@ -2678,22 +2687,22 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -2701,22 +2710,22 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -2724,22 +2733,22 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -2747,22 +2756,22 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="1">
         <v>200</v>
@@ -2770,22 +2779,22 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>200</v>
@@ -2793,22 +2802,22 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>200</v>
@@ -2816,22 +2825,22 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="1">
         <v>200</v>
@@ -2839,22 +2848,22 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1">
         <v>200</v>
@@ -2862,22 +2871,22 @@
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>200</v>
@@ -2885,22 +2894,22 @@
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="1">
         <v>200</v>
@@ -2908,22 +2917,22 @@
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1">
         <v>200</v>
@@ -2931,22 +2940,22 @@
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1">
         <v>200</v>
@@ -2954,22 +2963,22 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="1">
         <v>200</v>
@@ -2977,22 +2986,22 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1">
         <v>200</v>
@@ -3000,22 +3009,22 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1">
         <v>200</v>
@@ -3023,22 +3032,22 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1">
         <v>200</v>
@@ -3046,22 +3055,22 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1">
         <v>200</v>
@@ -3069,22 +3078,22 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1">
         <v>200</v>
@@ -3092,22 +3101,22 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" s="1">
         <v>200</v>
@@ -3115,22 +3124,22 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1">
         <v>200</v>
@@ -3138,22 +3147,22 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1">
         <v>200</v>
@@ -3161,22 +3170,22 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1">
         <v>200</v>
@@ -3184,22 +3193,22 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="1">
         <v>200</v>
@@ -3207,22 +3216,22 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1">
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="1">
         <v>200</v>
@@ -3230,22 +3239,22 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1">
         <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" s="1">
         <v>200</v>
@@ -3253,22 +3262,22 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="1">
         <v>200</v>
@@ -3276,22 +3285,22 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1">
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="1">
         <v>200</v>
@@ -3299,22 +3308,22 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" s="1">
         <v>200</v>
@@ -3322,22 +3331,22 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="1">
         <v>200</v>
@@ -3345,22 +3354,22 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="1">
         <v>200</v>
@@ -3368,22 +3377,22 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2">
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1">
         <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" s="1">
         <v>200</v>
@@ -3391,22 +3400,22 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="1">
         <v>200</v>
@@ -3414,22 +3423,22 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1">
         <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="1">
         <v>200</v>
@@ -3437,22 +3446,22 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="2">
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1">
         <v>10</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="1">
         <v>200</v>
@@ -3460,22 +3469,22 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1">
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="1">
         <v>200</v>
@@ -3483,22 +3492,22 @@
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1">
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1">
         <v>10</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="1">
         <v>200</v>
@@ -3506,22 +3515,22 @@
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" s="2">
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1">
         <v>10</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" s="1">
         <v>200</v>
@@ -3529,22 +3538,22 @@
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1">
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1">
         <v>10</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G42" s="1">
         <v>200</v>
@@ -3552,22 +3561,22 @@
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="1">
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1">
         <v>10</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="1">
         <v>200</v>
@@ -3575,22 +3584,22 @@
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2">
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1">
         <v>10</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" s="1">
         <v>200</v>
@@ -3598,22 +3607,22 @@
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1">
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="1">
         <v>10</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G45" s="1">
         <v>200</v>
@@ -3621,22 +3630,22 @@
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1">
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1">
         <v>10</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46" s="1">
         <v>200</v>
@@ -3644,22 +3653,22 @@
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2">
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1">
         <v>10</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" s="1">
         <v>200</v>
@@ -3667,22 +3676,22 @@
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="1">
         <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" s="1">
         <v>10</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G48" s="1">
         <v>200</v>
@@ -3690,22 +3699,22 @@
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="1">
         <v>10</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="1">
         <v>200</v>
@@ -3713,22 +3722,22 @@
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2">
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" s="1">
         <v>10</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" s="1">
         <v>200</v>
@@ -3736,22 +3745,22 @@
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E51" s="1">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G51" s="1">
         <v>200</v>
@@ -3759,22 +3768,22 @@
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1">
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="1">
         <v>10</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G52" s="1">
         <v>200</v>
@@ -3782,22 +3791,22 @@
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2">
         <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53" s="1">
         <v>10</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G53" s="1">
         <v>200</v>
@@ -3805,22 +3814,22 @@
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1">
         <v>53</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="1">
         <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G54" s="1">
         <v>200</v>
@@ -3828,22 +3837,22 @@
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1">
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E55" s="1">
         <v>10</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G55" s="1">
         <v>200</v>
@@ -3883,27 +3892,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1">
         <v>0.1</v>
@@ -3912,13 +3921,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -3926,7 +3935,7 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3935,13 +3944,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -3949,7 +3958,7 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -3958,13 +3967,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
@@ -3972,7 +3981,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -3981,13 +3990,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -3995,7 +4004,7 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
@@ -4004,13 +4013,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -4018,7 +4027,7 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
@@ -4027,13 +4036,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -4041,7 +4050,7 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="7">
         <v>1500</v>
@@ -4050,13 +4059,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1">
         <v>200</v>
@@ -4064,7 +4073,7 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
@@ -4073,13 +4082,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1">
         <v>200</v>
@@ -4087,7 +4096,7 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -4096,13 +4105,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1">
         <v>200</v>
@@ -4110,7 +4119,7 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -4119,13 +4128,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1">
         <v>200</v>
@@ -4133,7 +4142,7 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -4142,13 +4151,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="1">
         <v>200</v>
@@ -4156,7 +4165,7 @@
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="1">
         <v>150</v>
@@ -4165,13 +4174,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1">
         <v>200</v>
@@ -4179,7 +4188,7 @@
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="1">
         <v>500</v>
@@ -4188,13 +4197,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" s="1">
         <v>200</v>
@@ -4202,7 +4211,7 @@
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="7">
         <v>1500</v>
@@ -4211,13 +4220,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="1">
         <v>200</v>
@@ -4225,7 +4234,7 @@
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="1">
         <v>0.1</v>
@@ -4234,13 +4243,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1">
         <v>200</v>
@@ -4248,7 +4257,7 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -4257,13 +4266,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1">
         <v>200</v>
@@ -4271,7 +4280,7 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -4280,13 +4289,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="1">
         <v>200</v>
@@ -4294,7 +4303,7 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -4303,13 +4312,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="1">
         <v>200</v>
@@ -4317,7 +4326,7 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="1">
         <v>150</v>
@@ -4326,13 +4335,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G20" s="1">
         <v>200</v>
@@ -4340,7 +4349,7 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="1">
         <v>500</v>
@@ -4349,13 +4358,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="1">
         <v>200</v>
@@ -4363,7 +4372,7 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="7">
         <v>1500</v>
@@ -4372,13 +4381,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1">
         <v>200</v>
@@ -4386,7 +4395,7 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="1">
         <v>0.3</v>
@@ -4395,13 +4404,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="1">
         <v>200</v>
@@ -4409,7 +4418,7 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -4418,13 +4427,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="1">
         <v>200</v>
@@ -4432,7 +4441,7 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="1">
         <v>30</v>
@@ -4441,13 +4450,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1">
         <v>200</v>
@@ -4455,7 +4464,7 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1">
         <v>150</v>
@@ -4464,13 +4473,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G26" s="1">
         <v>200</v>
@@ -4478,7 +4487,7 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
@@ -4487,13 +4496,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" s="1">
         <v>200</v>
@@ -4501,7 +4510,7 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="1">
         <v>1500</v>
@@ -4510,13 +4519,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1">
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="1">
         <v>200</v>
@@ -4524,7 +4533,7 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="7">
         <v>4500</v>
@@ -4533,13 +4542,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1">
         <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29" s="1">
         <v>200</v>
@@ -4547,7 +4556,7 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="1">
         <v>0.3</v>
@@ -4556,13 +4565,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1">
         <v>200</v>
@@ -4570,7 +4579,7 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -4579,13 +4588,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1">
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="1">
         <v>200</v>
@@ -4593,7 +4602,7 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="1">
         <v>15</v>
@@ -4602,13 +4611,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="1">
         <v>200</v>
@@ -4616,7 +4625,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
@@ -4625,13 +4634,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G33" s="1">
         <v>200</v>
@@ -4639,7 +4648,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="1">
         <v>200</v>
@@ -4648,13 +4657,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G34" s="1">
         <v>200</v>
@@ -4662,7 +4671,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="1">
         <v>600</v>
@@ -4671,13 +4680,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1">
         <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G35" s="1">
         <v>200</v>
@@ -4685,7 +4694,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="7">
         <v>7</v>
@@ -4694,13 +4703,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G36" s="1">
         <v>200</v>
@@ -4708,7 +4717,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="7">
         <v>30</v>
@@ -4717,13 +4726,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1">
         <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" s="1">
         <v>200</v>
@@ -4731,7 +4740,7 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1">
         <v>90</v>
@@ -4740,13 +4749,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1">
         <v>10</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="1">
         <v>200</v>
@@ -4754,7 +4763,7 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="1">
         <v>250</v>
@@ -4763,13 +4772,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G39" s="1">
         <v>200</v>
@@ -4843,27 +4852,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4872,13 +4881,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -4886,7 +4895,7 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -4895,13 +4904,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -4909,7 +4918,7 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -4918,13 +4927,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
@@ -4932,7 +4941,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -4941,13 +4950,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -4955,7 +4964,7 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -4964,13 +4973,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -4978,7 +4987,7 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1">
         <v>480</v>
@@ -4987,13 +4996,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -5001,7 +5010,7 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="7">
         <v>900</v>
@@ -5010,13 +5019,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1">
         <v>200</v>
@@ -5024,7 +5033,7 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1">
         <v>1440</v>
@@ -5033,13 +5042,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1">
         <v>200</v>
@@ -5047,7 +5056,7 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -5056,13 +5065,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1">
         <v>200</v>
@@ -5070,7 +5079,7 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -5079,13 +5088,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1">
         <v>200</v>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,28 +4,33 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="21820" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="9760" yWindow="3160" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
     <sheet name="buff" sheetId="3" r:id="rId2"/>
     <sheet name="resource" sheetId="4" r:id="rId3"/>
     <sheet name="speedUp" sheetId="5" r:id="rId4"/>
+    <sheet name="buffTypes" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="195">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -92,9 +97,6 @@
     <t>heroBlood_3</t>
   </si>
   <si>
-    <t>stamina_1</t>
-  </si>
-  <si>
     <t>stamina_2</t>
   </si>
   <si>
@@ -391,62 +393,14 @@
     <t>siegeAtkBonus_3</t>
   </si>
   <si>
-    <t>0.2_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2_24</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2_72</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0.25_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25_24</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25_72</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0.5_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5_24</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5_72</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3_24</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3_72</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -620,19 +574,108 @@
     <t>resource:woodClass_6:1:14,resource:stoneClass_6:1:14,resource:ironClass_6:1:14,resource:foodClass_6:1:14,resource:coinClass_5:1:11,resource:casinoTokenClass_2:2:11,speedup:speedup_5:3:11,speedup:speedup_6:2:11</t>
   </si>
   <si>
+    <t>resource:woodClass_2:1:15,resource:stoneClass_2:1:15,resource:ironClass_2:1:15,resource:foodClass_2:1:15,resource:coinClass_1:1:15,speedup:speedup_1:3:15,speedup:speedup_2:1:10</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:5:12,dragonMaterials:redSoul_2:5:10,dragonMaterials:blueSoul_2:5:10,dragonMaterials:greenSoul_2:5:10,dragonMaterials:redCrystal_2:5:11,dragonMaterials:blueCrystal_2:5:11,dragonMaterials:greenCrystal_2:5:11,dragonMaterials:runes_2:5:11,dragonMaterials:ingo_3:2:1,dragonMaterials:redSoul_3:2:2,dragonMaterials:blueSoul_3:2:2,dragonMaterials:greenSoul_3:2:2,dragonMaterials:redCrystal_3:2:2,dragonMaterials:blueCrystal_3:2:2,dragonMaterials:greenCrystal_3:2:2,dragonMaterials:runes_3:2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:5:12,dragonMaterials:redSoul_3:5:10,dragonMaterials:blueSoul_3:5:10,dragonMaterials:greenSoul_3:5:10,dragonMaterials:redCrystal_3:5:11,dragonMaterials:blueCrystal_3:5:11,dragonMaterials:greenCrystal_3:5:11,dragonMaterials:runes_3:5:11,dragonMaterials:ingo_4:2:1,dragonMaterials:redSoul_4:2:2,dragonMaterials:blueSoul_4:2:2,dragonMaterials:greenSoul_4:2:2,dragonMaterials:redCrystal_4:2:2,dragonMaterials:blueCrystal_4:2:2,dragonMaterials:greenCrystal_4:2:2,dragonMaterials:runes_4:2:1</t>
+  </si>
+  <si>
+    <t>movingConstruction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>dragonMaterials:ingo_1:5:14,dragonMaterials:redCrystal_1:5:14,dragonMaterials:blueCrystal_1:5:14,dragonMaterials:greenCrystal_1:5:14,dragonMaterials:runes_1:5:14,dragonMaterials:ingo_2:5:3,dragonMaterials:redSoul_2:2:4,dragonMaterials:blueSoul_2:2:4,dragonMaterials:greenSoul_2:2:4,dragonMaterials:redCrystal_2:2:4,dragonMaterials:blueCrystal_2:2:4,dragonMaterials:greenCrystal_2:2:4,dragonMaterials:runes_2:2:3</t>
-  </si>
-  <si>
-    <t>resource:woodClass_2:1:15,resource:stoneClass_2:1:15,resource:ironClass_2:1:15,resource:foodClass_2:1:15,resource:coinClass_1:1:15,speedup:speedup_1:3:15,speedup:speedup_2:1:10</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:5:12,dragonMaterials:redSoul_2:5:10,dragonMaterials:blueSoul_2:5:10,dragonMaterials:greenSoul_2:5:10,dragonMaterials:redCrystal_2:5:11,dragonMaterials:blueCrystal_2:5:11,dragonMaterials:greenCrystal_2:5:11,dragonMaterials:runes_2:5:11,dragonMaterials:ingo_3:2:1,dragonMaterials:redSoul_3:2:2,dragonMaterials:blueSoul_3:2:2,dragonMaterials:greenSoul_3:2:2,dragonMaterials:redCrystal_3:2:2,dragonMaterials:blueCrystal_3:2:2,dragonMaterials:greenCrystal_3:2:2,dragonMaterials:runes_3:2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:5:12,dragonMaterials:redSoul_3:5:10,dragonMaterials:blueSoul_3:5:10,dragonMaterials:greenSoul_3:5:10,dragonMaterials:redCrystal_3:5:11,dragonMaterials:blueCrystal_3:5:11,dragonMaterials:greenCrystal_3:5:11,dragonMaterials:runes_3:5:11,dragonMaterials:ingo_4:2:1,dragonMaterials:redSoul_4:2:2,dragonMaterials:blueSoul_4:2:2,dragonMaterials:greenSoul_4:2:2,dragonMaterials:redCrystal_4:2:2,dragonMaterials:blueCrystal_4:2:2,dragonMaterials:greenCrystal_4:2:2,dragonMaterials:runes_4:2:1</t>
-  </si>
-  <si>
-    <t>movingConstruction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterOfDefender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fogOfTrick</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxesBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +832,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="166">
+  <cellStyleXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -804,6 +847,234 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -991,7 +1262,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="166">
+  <cellStyles count="394">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1077,6 +1348,120 @@
     <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1155,6 +1540,120 @@
     <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1606,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1629,39 +2128,39 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -1672,19 +2171,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -1695,19 +2194,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
@@ -1718,19 +2217,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -1741,19 +2240,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -1764,19 +2263,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -1793,13 +2292,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1">
         <v>200</v>
@@ -1816,13 +2315,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>200</v>
@@ -1839,13 +2338,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>200</v>
@@ -1862,13 +2361,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1">
         <v>200</v>
@@ -1885,13 +2384,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1">
         <v>200</v>
@@ -1908,13 +2407,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>200</v>
@@ -1931,13 +2430,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="1">
         <v>200</v>
@@ -1954,13 +2453,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G15" s="1">
         <v>200</v>
@@ -1977,13 +2476,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G16" s="1">
         <v>200</v>
@@ -1991,7 +2490,7 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B17" s="7">
         <v>20</v>
@@ -2000,13 +2499,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1">
         <v>200</v>
@@ -2014,7 +2513,7 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7">
         <v>50</v>
@@ -2023,13 +2522,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="1">
         <v>200</v>
@@ -2037,7 +2536,7 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7">
         <v>100</v>
@@ -2046,13 +2545,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1">
         <v>200</v>
@@ -2060,7 +2559,7 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="7">
         <v>100</v>
@@ -2069,13 +2568,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="1">
         <v>200</v>
@@ -2083,7 +2582,7 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="7">
         <v>500</v>
@@ -2092,13 +2591,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1">
         <v>200</v>
@@ -2106,7 +2605,7 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7">
         <v>1000</v>
@@ -2115,13 +2614,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1">
         <v>200</v>
@@ -2129,22 +2628,22 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="1">
         <v>200</v>
@@ -2152,22 +2651,22 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1">
         <v>200</v>
@@ -2175,22 +2674,22 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="1">
         <v>200</v>
@@ -2198,22 +2697,22 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1">
         <v>200</v>
@@ -2221,22 +2720,22 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E27" s="1">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G27" s="1">
         <v>200</v>
@@ -2244,22 +2743,22 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E28" s="1">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G28" s="1">
         <v>200</v>
@@ -2267,22 +2766,22 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E29" s="1">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G29" s="1">
         <v>200</v>
@@ -2290,22 +2789,22 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G30" s="1">
         <v>200</v>
@@ -2313,22 +2812,22 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E31" s="1">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G31" s="1">
         <v>200</v>
@@ -2336,22 +2835,22 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G32" s="1">
         <v>200</v>
@@ -2359,7 +2858,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7">
         <v>30</v>
@@ -2368,13 +2867,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="1">
         <v>200</v>
@@ -2382,7 +2881,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7">
         <v>60</v>
@@ -2391,13 +2890,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="1">
         <v>200</v>
@@ -2405,7 +2904,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7">
         <v>1440</v>
@@ -2414,13 +2913,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="G35" s="1">
         <v>200</v>
@@ -2428,7 +2927,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7">
         <v>10080</v>
@@ -2437,13 +2936,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="1">
         <v>200</v>
@@ -2451,7 +2950,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7">
         <v>43200</v>
@@ -2460,13 +2959,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1">
         <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="1">
         <v>200</v>
@@ -2474,7 +2973,7 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="7">
         <v>100</v>
@@ -2483,13 +2982,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="G38" s="1">
         <v>200</v>
@@ -2497,7 +2996,7 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="7">
         <v>300</v>
@@ -2506,13 +3005,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39" s="1">
         <v>200</v>
@@ -2520,7 +3019,7 @@
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="7">
         <v>1000</v>
@@ -2529,13 +3028,13 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1">
         <v>10</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="1">
         <v>200</v>
@@ -2543,7 +3042,7 @@
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="7">
         <v>5000</v>
@@ -2552,13 +3051,13 @@
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1">
         <v>10</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="1">
         <v>200</v>
@@ -2578,1283 +3077,1448 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" style="1"/>
-    <col min="4" max="4" width="20.6640625" style="5"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="5"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="4" width="20.6640625" style="1"/>
+    <col min="5" max="5" width="20.6640625" style="5"/>
+    <col min="6" max="6" width="20.6640625" style="1"/>
+    <col min="7" max="7" width="20.6640625" style="5"/>
+    <col min="8" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1">
+        <v>72</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="7">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="7">
+        <v>72</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="7">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="7">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="7">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="7">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="7">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="1">
+        <v>26</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="7">
+        <v>72</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="1">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="2">
+        <v>28</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="1">
+        <v>29</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="7">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="2">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="1">
+        <v>24</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="1">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="7">
+        <v>72</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="1">
+        <v>33</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="2">
+        <v>34</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="1">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="1">
+        <v>10</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="2">
+        <v>37</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="1">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="1">
+        <v>24</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="1">
+        <v>38</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1">
+      <c r="A40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="7">
+        <v>72</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="1">
+        <v>39</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="2">
+        <v>40</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1">
+        <v>24</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="1">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="7">
+        <v>72</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="1">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="1">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="1">
         <v>44</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="7">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="1">
+        <v>10</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="2">
+        <v>46</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="H47" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="1">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="1">
+        <v>47</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="7">
+        <v>72</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="1">
+        <v>48</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="1">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="2">
+        <v>49</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="1">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="1">
+        <v>50</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="1">
+        <v>10</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="7">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" s="1">
+        <v>51</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="1">
+        <v>10</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="2">
+        <v>52</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="1">
+        <v>10</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="1">
+        <v>24</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="1">
         <v>53</v>
       </c>
-      <c r="G2" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="1">
+        <v>10</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="H54" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="7">
+        <v>72</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="1">
+        <v>54</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="1">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="1">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="1">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="1">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="2">
-        <v>22</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="1">
-        <v>24</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="2">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="1">
-        <v>26</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="1">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="1">
-        <v>27</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="2">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="1">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="1">
-        <v>29</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="1">
-        <v>30</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="1">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="2">
-        <v>31</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="1">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="1">
-        <v>33</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="1">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="20" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="2">
-        <v>34</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="1">
-        <v>35</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="20" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="1">
-        <v>36</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="1">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="2">
-        <v>37</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="20" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="1">
-        <v>38</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="1">
-        <v>10</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="20" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="1">
-        <v>39</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="2">
-        <v>40</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="1">
-        <v>10</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="20" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="1">
-        <v>41</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="1">
-        <v>10</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="1">
-        <v>42</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="1">
-        <v>10</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="20" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="2">
-        <v>43</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="1">
-        <v>10</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="20" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="1">
-        <v>10</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="20" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="1">
-        <v>45</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="1">
-        <v>10</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="20" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="2">
-        <v>46</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="1">
-        <v>10</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="20" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="1">
-        <v>47</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="1">
-        <v>10</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="20" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="1">
-        <v>48</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="1">
-        <v>10</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="20" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="2">
-        <v>49</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="1">
-        <v>10</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="20" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="1">
-        <v>50</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="1">
-        <v>10</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="20" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="1">
-        <v>51</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="1">
-        <v>10</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="20" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="2">
-        <v>52</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="1">
-        <v>10</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="20" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="1">
-        <v>53</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="1">
-        <v>10</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="20" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="1">
-        <v>54</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="1">
-        <v>10</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>200</v>
       </c>
     </row>
@@ -3875,7 +4539,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3895,24 +4559,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1">
         <v>0.1</v>
@@ -3921,13 +4585,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -3935,7 +4599,7 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3944,13 +4608,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -3958,7 +4622,7 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -3967,13 +4631,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
@@ -3981,7 +4645,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -3990,13 +4654,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -4004,7 +4668,7 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
@@ -4013,13 +4677,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -4027,7 +4691,7 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
@@ -4036,13 +4700,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -4050,7 +4714,7 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B8" s="7">
         <v>1500</v>
@@ -4059,13 +4723,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1">
         <v>200</v>
@@ -4073,7 +4737,7 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
@@ -4082,13 +4746,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1">
         <v>200</v>
@@ -4096,7 +4760,7 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -4105,13 +4769,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>200</v>
@@ -4119,7 +4783,7 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -4128,13 +4792,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G11" s="1">
         <v>200</v>
@@ -4142,7 +4806,7 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -4151,13 +4815,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G12" s="1">
         <v>200</v>
@@ -4165,7 +4829,7 @@
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1">
         <v>150</v>
@@ -4174,13 +4838,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
         <v>200</v>
@@ -4188,7 +4852,7 @@
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1">
         <v>500</v>
@@ -4197,13 +4861,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G14" s="1">
         <v>200</v>
@@ -4211,7 +4875,7 @@
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B15" s="7">
         <v>1500</v>
@@ -4220,13 +4884,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G15" s="1">
         <v>200</v>
@@ -4234,7 +4898,7 @@
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1">
         <v>0.1</v>
@@ -4243,13 +4907,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1">
         <v>200</v>
@@ -4257,7 +4921,7 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -4266,13 +4930,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1">
         <v>200</v>
@@ -4280,7 +4944,7 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -4289,13 +4953,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G18" s="1">
         <v>200</v>
@@ -4303,7 +4967,7 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -4312,13 +4976,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G19" s="1">
         <v>200</v>
@@ -4326,7 +4990,7 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1">
         <v>150</v>
@@ -4335,13 +4999,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1">
         <v>200</v>
@@ -4349,7 +5013,7 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1">
         <v>500</v>
@@ -4358,13 +5022,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1">
         <v>200</v>
@@ -4372,7 +5036,7 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B22" s="7">
         <v>1500</v>
@@ -4381,13 +5045,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1">
         <v>200</v>
@@ -4395,7 +5059,7 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1">
         <v>0.3</v>
@@ -4404,13 +5068,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G23" s="1">
         <v>200</v>
@@ -4418,7 +5082,7 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -4427,13 +5091,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G24" s="1">
         <v>200</v>
@@ -4441,7 +5105,7 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1">
         <v>30</v>
@@ -4450,13 +5114,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1">
         <v>200</v>
@@ -4464,7 +5128,7 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1">
         <v>150</v>
@@ -4473,13 +5137,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G26" s="1">
         <v>200</v>
@@ -4487,7 +5151,7 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
@@ -4496,13 +5160,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1">
         <v>200</v>
@@ -4510,7 +5174,7 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1">
         <v>1500</v>
@@ -4519,13 +5183,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="1">
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G28" s="1">
         <v>200</v>
@@ -4533,7 +5197,7 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B29" s="7">
         <v>4500</v>
@@ -4542,13 +5206,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1">
         <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G29" s="1">
         <v>200</v>
@@ -4556,7 +5220,7 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1">
         <v>0.3</v>
@@ -4565,13 +5229,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G30" s="1">
         <v>200</v>
@@ -4579,7 +5243,7 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -4588,13 +5252,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1">
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="1">
         <v>200</v>
@@ -4602,7 +5266,7 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B32" s="1">
         <v>15</v>
@@ -4611,13 +5275,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G32" s="1">
         <v>200</v>
@@ -4625,7 +5289,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B33" s="1">
         <v>50</v>
@@ -4634,13 +5298,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G33" s="1">
         <v>200</v>
@@ -4648,7 +5312,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B34" s="1">
         <v>200</v>
@@ -4657,13 +5321,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G34" s="1">
         <v>200</v>
@@ -4671,7 +5335,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B35" s="1">
         <v>600</v>
@@ -4680,13 +5344,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1">
         <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G35" s="1">
         <v>200</v>
@@ -4694,7 +5358,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B36" s="7">
         <v>7</v>
@@ -4703,13 +5367,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G36" s="1">
         <v>200</v>
@@ -4717,7 +5381,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B37" s="7">
         <v>30</v>
@@ -4726,13 +5390,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1">
         <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G37" s="1">
         <v>200</v>
@@ -4740,7 +5404,7 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1">
         <v>90</v>
@@ -4749,13 +5413,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1">
         <v>10</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G38" s="1">
         <v>200</v>
@@ -4763,7 +5427,7 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1">
         <v>250</v>
@@ -4772,13 +5436,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G39" s="1">
         <v>200</v>
@@ -4855,24 +5519,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4881,13 +5545,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -4895,7 +5559,7 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -4904,13 +5568,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
@@ -4918,7 +5582,7 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -4927,13 +5591,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
@@ -4941,7 +5605,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -4950,13 +5614,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -4964,7 +5628,7 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -4973,13 +5637,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
@@ -4987,7 +5651,7 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1">
         <v>480</v>
@@ -4996,13 +5660,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -5010,7 +5674,7 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B8" s="7">
         <v>900</v>
@@ -5019,13 +5683,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1">
         <v>200</v>
@@ -5033,7 +5697,7 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1">
         <v>1440</v>
@@ -5042,13 +5706,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1">
         <v>200</v>
@@ -5056,7 +5720,7 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -5065,13 +5729,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G10" s="1">
         <v>200</v>
@@ -5079,7 +5743,7 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -5088,13 +5752,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1">
         <v>200</v>
@@ -5202,6 +5866,183 @@
     </row>
     <row r="55" spans="2:3" ht="20" customHeight="1">
       <c r="B55" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="3160" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="11300" yWindow="2820" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -832,7 +832,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="394">
+  <cellStyleXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -847,6 +847,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1262,7 +1282,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="394">
+  <cellStyles count="414">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1462,6 +1482,16 @@
     <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1654,6 +1684,16 @@
     <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3079,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4538,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4556,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -5499,7 +5539,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5883,8 +5923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11300" yWindow="2820" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="7160" yWindow="2060" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
     <sheet name="buff" sheetId="3" r:id="rId2"/>
     <sheet name="resource" sheetId="4" r:id="rId3"/>
-    <sheet name="speedUp" sheetId="5" r:id="rId4"/>
+    <sheet name="speedup" sheetId="5" r:id="rId4"/>
     <sheet name="buffTypes" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="196">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -511,9 +511,6 @@
     <t>coinClass_6</t>
   </si>
   <si>
-    <t>casinoTokenClass_1</t>
-  </si>
-  <si>
     <t>casinoTokenClass_2</t>
   </si>
   <si>
@@ -527,15 +524,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>speedup_1</t>
-  </si>
-  <si>
-    <t>speedup_2</t>
-  </si>
-  <si>
-    <t>speedup_3</t>
-  </si>
-  <si>
     <t>speedup_4</t>
   </si>
   <si>
@@ -676,6 +664,26 @@
   </si>
   <si>
     <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +840,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="414">
+  <cellStyleXfs count="452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -847,6 +855,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1282,7 +1328,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="414">
+  <cellStyles count="452">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1492,6 +1538,25 @@
     <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1694,6 +1759,25 @@
     <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2185,7 +2269,7 @@
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>45</v>
@@ -2401,7 +2485,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -2530,7 +2614,7 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B17" s="7">
         <v>20</v>
@@ -2671,7 +2755,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
@@ -2694,7 +2778,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -2717,7 +2801,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -2740,7 +2824,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
@@ -2763,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -2786,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -2809,7 +2893,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
@@ -3137,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>40</v>
@@ -3166,7 +3250,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3192,7 +3276,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3218,7 +3302,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3244,7 +3328,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3270,7 +3354,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3296,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3322,7 +3406,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -3348,7 +3432,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -3374,7 +3458,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
@@ -3400,7 +3484,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -3426,7 +3510,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
@@ -3452,7 +3536,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
@@ -3478,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
@@ -3504,7 +3588,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
@@ -3530,7 +3614,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
@@ -3556,7 +3640,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -3582,7 +3666,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
@@ -3608,7 +3692,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
@@ -3634,7 +3718,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
@@ -3660,7 +3744,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -3686,7 +3770,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D22" s="1">
         <v>21</v>
@@ -3712,7 +3796,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -3738,7 +3822,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
@@ -3764,7 +3848,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
@@ -3790,7 +3874,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
@@ -3816,7 +3900,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D27" s="1">
         <v>26</v>
@@ -3842,7 +3926,7 @@
         <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
@@ -3868,7 +3952,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
@@ -3894,7 +3978,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D30" s="1">
         <v>29</v>
@@ -3920,7 +4004,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
@@ -3946,7 +4030,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
@@ -3972,7 +4056,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
@@ -3998,7 +4082,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
@@ -4024,7 +4108,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
@@ -4050,7 +4134,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
@@ -4076,7 +4160,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
@@ -4102,7 +4186,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
@@ -4128,7 +4212,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D39" s="1">
         <v>38</v>
@@ -4154,7 +4238,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
@@ -4180,7 +4264,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
@@ -4206,7 +4290,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
@@ -4232,7 +4316,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
@@ -4258,7 +4342,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
@@ -4284,7 +4368,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
@@ -4310,7 +4394,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D46" s="1">
         <v>45</v>
@@ -4336,7 +4420,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
@@ -4362,7 +4446,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
@@ -4388,7 +4472,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
@@ -4414,7 +4498,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
@@ -4440,7 +4524,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
@@ -4466,7 +4550,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
@@ -4492,7 +4576,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D53" s="2">
         <v>52</v>
@@ -4518,7 +4602,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
@@ -4544,7 +4628,7 @@
         <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
@@ -4578,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4596,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -5022,7 +5106,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G19" s="1">
         <v>200</v>
@@ -5398,7 +5482,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="B36" s="7">
         <v>7</v>
@@ -5421,7 +5505,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" s="7">
         <v>30</v>
@@ -5444,7 +5528,7 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1">
         <v>90</v>
@@ -5467,7 +5551,7 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="1">
         <v>250</v>
@@ -5538,8 +5622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5556,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -5576,7 +5660,7 @@
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -5599,7 +5683,7 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -5622,7 +5706,7 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -5645,7 +5729,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -5660,7 +5744,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
@@ -5668,7 +5752,7 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -5691,7 +5775,7 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1">
         <v>480</v>
@@ -5706,7 +5790,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G7" s="1">
         <v>200</v>
@@ -5714,7 +5798,7 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7">
         <v>900</v>
@@ -5737,7 +5821,7 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1">
         <v>1440</v>
@@ -5760,7 +5844,7 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -5783,7 +5867,7 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -5924,7 +6008,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5934,15 +6018,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1">
         <v>0.2</v>
@@ -5950,7 +6034,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1">
         <v>0.25</v>
@@ -5958,7 +6042,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -5966,7 +6050,7 @@
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
@@ -5974,7 +6058,7 @@
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
@@ -5982,7 +6066,7 @@
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B7" s="7">
         <v>0.5</v>
@@ -5990,7 +6074,7 @@
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B8" s="7">
         <v>0.5</v>
@@ -5998,7 +6082,7 @@
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B9" s="7">
         <v>0.5</v>
@@ -6006,7 +6090,7 @@
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B10" s="7">
         <v>0.5</v>
@@ -6014,7 +6098,7 @@
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1">
         <v>0.3</v>
@@ -6022,7 +6106,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1">
         <v>0.3</v>
@@ -6030,7 +6114,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1">
         <v>0.3</v>
@@ -6038,7 +6122,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1">
         <v>0.3</v>
@@ -6046,7 +6130,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1">
         <v>0.3</v>
@@ -6054,7 +6138,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1">
         <v>0.3</v>
@@ -6062,7 +6146,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
@@ -6070,7 +6154,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1">
         <v>0.3</v>
@@ -6078,7 +6162,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B19" s="1">
         <v>0.3</v>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2060" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="5180" yWindow="920" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="231">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BOOL_isSellInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_price</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -196,29 +192,591 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterOfDefender_1</t>
+  </si>
+  <si>
+    <t>masterOfDefender_2</t>
+  </si>
+  <si>
+    <t>masterOfDefender_3</t>
+  </si>
+  <si>
+    <t>quarterMaster_1</t>
+  </si>
+  <si>
+    <t>quarterMaster_2</t>
+  </si>
+  <si>
+    <t>quarterMaster_3</t>
+  </si>
+  <si>
+    <t>fogOfTrick_1</t>
+  </si>
+  <si>
+    <t>fogOfTrick_2</t>
+  </si>
+  <si>
+    <t>fogOfTrick_3</t>
+  </si>
+  <si>
+    <t>woodBonus_1</t>
+  </si>
+  <si>
+    <t>woodBonus_2</t>
+  </si>
+  <si>
+    <t>woodBonus_3</t>
+  </si>
+  <si>
+    <t>stoneBonus_1</t>
+  </si>
+  <si>
+    <t>stoneBonus_2</t>
+  </si>
+  <si>
+    <t>stoneBonus_3</t>
+  </si>
+  <si>
+    <t>ironBonus_1</t>
+  </si>
+  <si>
+    <t>ironBonus_2</t>
+  </si>
+  <si>
+    <t>ironBonus_3</t>
+  </si>
+  <si>
+    <t>foodBonus_1</t>
+  </si>
+  <si>
+    <t>foodBonus_2</t>
+  </si>
+  <si>
+    <t>foodBonus_3</t>
+  </si>
+  <si>
+    <t>citizenBonus_1</t>
+  </si>
+  <si>
+    <t>citizenBonus_2</t>
+  </si>
+  <si>
+    <t>citizenBonus_3</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_1</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_3</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_1</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_2</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_3</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_1</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_3</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_1</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_2</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_3</t>
+  </si>
+  <si>
+    <t>unitHpBonus_1</t>
+  </si>
+  <si>
+    <t>unitHpBonus_2</t>
+  </si>
+  <si>
+    <t>unitHpBonus_3</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_1</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_2</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_3</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_1</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_2</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_3</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_1</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_2</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_3</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_1</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_2</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_3</t>
+  </si>
+  <si>
+    <t>woodClass_1</t>
+  </si>
+  <si>
+    <t>woodClass_2</t>
+  </si>
+  <si>
+    <t>woodClass_3</t>
+  </si>
+  <si>
+    <t>woodClass_4</t>
+  </si>
+  <si>
+    <t>woodClass_5</t>
+  </si>
+  <si>
+    <t>woodClass_6</t>
+  </si>
+  <si>
+    <t>woodClass_7</t>
+  </si>
+  <si>
+    <t>stoneClass_1</t>
+  </si>
+  <si>
+    <t>stoneClass_2</t>
+  </si>
+  <si>
+    <t>stoneClass_3</t>
+  </si>
+  <si>
+    <t>stoneClass_4</t>
+  </si>
+  <si>
+    <t>stoneClass_5</t>
+  </si>
+  <si>
+    <t>stoneClass_6</t>
+  </si>
+  <si>
+    <t>stoneClass_7</t>
+  </si>
+  <si>
+    <t>ironClass_1</t>
+  </si>
+  <si>
+    <t>ironClass_2</t>
+  </si>
+  <si>
+    <t>ironClass_3</t>
+  </si>
+  <si>
+    <t>ironClass_4</t>
+  </si>
+  <si>
+    <t>ironClass_5</t>
+  </si>
+  <si>
+    <t>ironClass_6</t>
+  </si>
+  <si>
+    <t>ironClass_7</t>
+  </si>
+  <si>
+    <t>foodClass_1</t>
+  </si>
+  <si>
+    <t>foodClass_2</t>
+  </si>
+  <si>
+    <t>foodClass_3</t>
+  </si>
+  <si>
+    <t>foodClass_4</t>
+  </si>
+  <si>
+    <t>foodClass_5</t>
+  </si>
+  <si>
+    <t>foodClass_6</t>
+  </si>
+  <si>
+    <t>foodClass_7</t>
+  </si>
+  <si>
+    <t>coinClass_1</t>
+  </si>
+  <si>
+    <t>coinClass_2</t>
+  </si>
+  <si>
+    <t>coinClass_3</t>
+  </si>
+  <si>
+    <t>coinClass_4</t>
+  </si>
+  <si>
+    <t>coinClass_5</t>
+  </si>
+  <si>
+    <t>coinClass_6</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_2</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_3</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_4</t>
+  </si>
+  <si>
+    <t>speedup_4</t>
+  </si>
+  <si>
+    <t>speedup_5</t>
+  </si>
+  <si>
+    <t>speedup_6</t>
+  </si>
+  <si>
+    <t>speedup_7</t>
+  </si>
+  <si>
+    <t>speedup_8</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_1</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_2</t>
+  </si>
+  <si>
+    <t>masterOfDefender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fogOfTrick</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_isAdvancedItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_sellPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buyPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6:9,dragonMaterials:redCrystal_1:6:9,dragonMaterials:blueCrystal_1:6:9,dragonMaterials:greenCrystal_1:6:9,dragonMaterials:runes_1:6:8,dragonMaterials:ingo_2:2:7,dragonMaterials:redSoul_2:2:7,dragonMaterials:blueSoul_2:2:7,dragonMaterials:greenSoul_2:2:7,dragonMaterials:redCrystal_2:2:7,dragonMaterials:blueCrystal_2:2:7,dragonMaterials:greenCrystal_2:2:7,dragonMaterials:runes_2:2:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>dragonMaterials:ingo_2:6:7,dragonMaterials:redSoul_2:6:6,dragonMaterials:blueSoul_2:6:6,dragonMaterials:greenSoul_2:6:6,dragonMaterials:redCrystal_2:6:6,dragonMaterials:blueCrystal_2:6:6,dragonMaterials:greenCrystal_2:6:6,dragonMaterials:runes_2:6:7,dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6:7,dragonMaterials:redSoul_3:6:6,dragonMaterials:blueSoul_3:6:6,dragonMaterials:greenSoul_3:6:6,dragonMaterials:redCrystal_3:6:6,dragonMaterials:blueCrystal_3:6:6,dragonMaterials:greenCrystal_3:6:6,dragonMaterials:runes_3:6:7,dragonMaterials:ingo_4:2:7,dragonMaterials:redSoul_4:2:6,dragonMaterials:blueSoul_4:2:6,dragonMaterials:greenSoul_4:2:6,dragonMaterials:redCrystal_4:2:6,dragonMaterials:blueCrystal_4:2:6,dragonMaterials:greenCrystal_4:2:6,dragonMaterials:runes_4:2:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_2:20:20,resource:stoneClass_2:20:20,resource:ironClass_2:20:20,resource:foodClass_2:20:20,resource:coinClass_2:15:10,speedup:speedup_1:30:5,speedup:speedup_2:20:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:15:14,resource:stoneClass_3:15:14,resource:ironClass_3:15:14,resource:foodClass_3:15:14,resource:coinClass_3:5:10,resource:casinoTokenClass_1:2:16,speedup:speedup_3:8:16,speedup:speedup_4:5:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_4:5:16,resource:stoneClass_4:5:16,resource:ironClass_4:5:16,resource:foodClass_4:5:16,resource:coinClass_4:5:10,resource:casinoTokenClass_1:2:10,speedup:speedup_4:8:10,speedup:speedup_5:5:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_6:5:14,resource:stoneClass_6:5:14,resource:ironClass_6:5:14,resource:foodClass_6:5:14,resource:coinClass_6:5:18,resource:casinoTokenClass_1:5:10,speedup:speedup_5:5:10,speedup:speedup_6:5:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>movingConstruction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>stamina_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterOfDefender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>masterOfDefender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>quarterMaster</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fogOfTrick</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ironBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxesBonus_1</t>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxesBonus_2</t>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxesBonus_3</t>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -227,498 +785,51 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>masterOfDefender_1</t>
-  </si>
-  <si>
-    <t>masterOfDefender_2</t>
-  </si>
-  <si>
-    <t>masterOfDefender_3</t>
-  </si>
-  <si>
-    <t>quarterMaster_1</t>
-  </si>
-  <si>
-    <t>quarterMaster_2</t>
-  </si>
-  <si>
-    <t>quarterMaster_3</t>
-  </si>
-  <si>
-    <t>fogOfTrick_1</t>
-  </si>
-  <si>
-    <t>fogOfTrick_2</t>
-  </si>
-  <si>
-    <t>fogOfTrick_3</t>
-  </si>
-  <si>
-    <t>woodBonus_1</t>
-  </si>
-  <si>
-    <t>woodBonus_2</t>
-  </si>
-  <si>
-    <t>woodBonus_3</t>
-  </si>
-  <si>
-    <t>stoneBonus_1</t>
-  </si>
-  <si>
-    <t>stoneBonus_2</t>
-  </si>
-  <si>
-    <t>stoneBonus_3</t>
-  </si>
-  <si>
-    <t>ironBonus_1</t>
-  </si>
-  <si>
-    <t>ironBonus_2</t>
-  </si>
-  <si>
-    <t>ironBonus_3</t>
-  </si>
-  <si>
-    <t>foodBonus_1</t>
-  </si>
-  <si>
-    <t>foodBonus_2</t>
-  </si>
-  <si>
-    <t>foodBonus_3</t>
-  </si>
-  <si>
-    <t>citizenBonus_1</t>
-  </si>
-  <si>
-    <t>citizenBonus_2</t>
-  </si>
-  <si>
-    <t>citizenBonus_3</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_1</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_3</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_1</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_2</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_3</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_1</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_3</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_1</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_2</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_3</t>
-  </si>
-  <si>
-    <t>unitHpBonus_1</t>
-  </si>
-  <si>
-    <t>unitHpBonus_2</t>
-  </si>
-  <si>
-    <t>unitHpBonus_3</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_1</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_2</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_3</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_1</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_2</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_3</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_1</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_2</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_3</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_1</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_2</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_3</t>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_1</t>
-  </si>
-  <si>
-    <t>woodClass_2</t>
-  </si>
-  <si>
-    <t>woodClass_3</t>
-  </si>
-  <si>
-    <t>woodClass_4</t>
-  </si>
-  <si>
-    <t>woodClass_5</t>
-  </si>
-  <si>
-    <t>woodClass_6</t>
-  </si>
-  <si>
-    <t>woodClass_7</t>
-  </si>
-  <si>
-    <t>stoneClass_1</t>
-  </si>
-  <si>
-    <t>stoneClass_2</t>
-  </si>
-  <si>
-    <t>stoneClass_3</t>
-  </si>
-  <si>
-    <t>stoneClass_4</t>
-  </si>
-  <si>
-    <t>stoneClass_5</t>
-  </si>
-  <si>
-    <t>stoneClass_6</t>
-  </si>
-  <si>
-    <t>stoneClass_7</t>
-  </si>
-  <si>
-    <t>ironClass_1</t>
-  </si>
-  <si>
-    <t>ironClass_2</t>
-  </si>
-  <si>
-    <t>ironClass_3</t>
-  </si>
-  <si>
-    <t>ironClass_4</t>
-  </si>
-  <si>
-    <t>ironClass_5</t>
-  </si>
-  <si>
-    <t>ironClass_6</t>
-  </si>
-  <si>
-    <t>ironClass_7</t>
-  </si>
-  <si>
-    <t>foodClass_1</t>
-  </si>
-  <si>
-    <t>foodClass_2</t>
-  </si>
-  <si>
-    <t>foodClass_3</t>
-  </si>
-  <si>
-    <t>foodClass_4</t>
-  </si>
-  <si>
-    <t>foodClass_5</t>
-  </si>
-  <si>
-    <t>foodClass_6</t>
-  </si>
-  <si>
-    <t>foodClass_7</t>
-  </si>
-  <si>
-    <t>coinClass_1</t>
-  </si>
-  <si>
-    <t>coinClass_2</t>
-  </si>
-  <si>
-    <t>coinClass_3</t>
-  </si>
-  <si>
-    <t>coinClass_4</t>
-  </si>
-  <si>
-    <t>coinClass_5</t>
-  </si>
-  <si>
-    <t>coinClass_6</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_2</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_3</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_4</t>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_4</t>
-  </si>
-  <si>
-    <t>speedup_5</t>
-  </si>
-  <si>
-    <t>speedup_6</t>
-  </si>
-  <si>
-    <t>speedup_7</t>
-  </si>
-  <si>
-    <t>speedup_8</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_1</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_2</t>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:1:14,resource:stoneClass_3:1:14,resource:ironClass_3:1:14,resource:foodClass_3:1:14,resource:coinClass_2:1:11,resource:casinoTokenClass_1:1:11,speedup:speedup_3:2:11,speedup:speedup_4:1:11</t>
-  </si>
-  <si>
-    <t>resource:woodClass_4:1:14,resource:stoneClass_4:1:14,resource:ironClass_4:1:14,resource:foodClass_4:1:14,resource:coinClass_4:1:11,resource:casinoTokenClass_1:2:11,speedup:speedup_4:2:11,speedup:speedup_5:1:11</t>
-  </si>
-  <si>
-    <t>resource:woodClass_6:1:14,resource:stoneClass_6:1:14,resource:ironClass_6:1:14,resource:foodClass_6:1:14,resource:coinClass_5:1:11,resource:casinoTokenClass_2:2:11,speedup:speedup_5:3:11,speedup:speedup_6:2:11</t>
-  </si>
-  <si>
-    <t>resource:woodClass_2:1:15,resource:stoneClass_2:1:15,resource:ironClass_2:1:15,resource:foodClass_2:1:15,resource:coinClass_1:1:15,speedup:speedup_1:3:15,speedup:speedup_2:1:10</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:5:12,dragonMaterials:redSoul_2:5:10,dragonMaterials:blueSoul_2:5:10,dragonMaterials:greenSoul_2:5:10,dragonMaterials:redCrystal_2:5:11,dragonMaterials:blueCrystal_2:5:11,dragonMaterials:greenCrystal_2:5:11,dragonMaterials:runes_2:5:11,dragonMaterials:ingo_3:2:1,dragonMaterials:redSoul_3:2:2,dragonMaterials:blueSoul_3:2:2,dragonMaterials:greenSoul_3:2:2,dragonMaterials:redCrystal_3:2:2,dragonMaterials:blueCrystal_3:2:2,dragonMaterials:greenCrystal_3:2:2,dragonMaterials:runes_3:2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:5:12,dragonMaterials:redSoul_3:5:10,dragonMaterials:blueSoul_3:5:10,dragonMaterials:greenSoul_3:5:10,dragonMaterials:redCrystal_3:5:11,dragonMaterials:blueCrystal_3:5:11,dragonMaterials:greenCrystal_3:5:11,dragonMaterials:runes_3:5:11,dragonMaterials:ingo_4:2:1,dragonMaterials:redSoul_4:2:2,dragonMaterials:blueSoul_4:2:2,dragonMaterials:greenSoul_4:2:2,dragonMaterials:redCrystal_4:2:2,dragonMaterials:blueCrystal_4:2:2,dragonMaterials:greenCrystal_4:2:2,dragonMaterials:runes_4:2:1</t>
-  </si>
-  <si>
-    <t>movingConstruction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:5:14,dragonMaterials:redCrystal_1:5:14,dragonMaterials:blueCrystal_1:5:14,dragonMaterials:greenCrystal_1:5:14,dragonMaterials:runes_1:5:14,dragonMaterials:ingo_2:5:3,dragonMaterials:redSoul_2:2:4,dragonMaterials:blueSoul_2:2:4,dragonMaterials:greenSoul_2:2:4,dragonMaterials:redCrystal_2:2:4,dragonMaterials:blueCrystal_2:2:4,dragonMaterials:greenCrystal_2:2:4,dragonMaterials:runes_2:2:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterOfDefender</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quarterMaster</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fogOfTrick</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_isAdvancedItem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_sellPriceInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_buyPriceInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +986,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="508">
+  <cellStyleXfs count="514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -890,6 +1001,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1419,7 +1536,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="508">
+  <cellStyles count="514">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1676,6 +1793,9 @@
     <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1925,6 +2045,9 @@
     <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2374,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G16" sqref="G1:H1048576"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2386,14 +2509,12 @@
     <col min="2" max="2" width="20.6640625" style="7"/>
     <col min="3" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="5"/>
-    <col min="7" max="8" width="20.6640625" style="1"/>
-    <col min="9" max="9" width="20.6640625" style="5"/>
-    <col min="10" max="16384" width="20.6640625" style="1"/>
+    <col min="5" max="7" width="20.6640625" style="1"/>
+    <col min="8" max="8" width="20.6640625" style="5"/>
+    <col min="9" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2407,172 +2528,154 @@
         <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
+      <c r="D2" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>400</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20000</v>
       </c>
       <c r="G2" s="1">
-        <v>200</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>20000</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>1500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>75000</v>
       </c>
       <c r="G3" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1">
         <v>200</v>
       </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="1">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>48</v>
+      <c r="F5" s="1">
+        <v>10000</v>
       </c>
       <c r="G5" s="1">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1">
-        <v>200</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1">
+        <v>174</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25000</v>
       </c>
       <c r="G6" s="1">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>25000</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -2581,27 +2684,24 @@
         <v>47</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>47</v>
+        <v>1000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50000</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7">
-        <v>100</v>
+        <v>50000</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -2610,143 +2710,128 @@
         <v>47</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>52</v>
+        <v>2000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100000</v>
       </c>
       <c r="G8" s="1">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7">
-        <v>500</v>
+        <v>100000</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1">
-        <v>200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1">
-        <v>200</v>
-      </c>
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>48</v>
+      <c r="F11" s="1">
+        <v>5000</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
-      </c>
-      <c r="H11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>5000</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="7">
-        <v>500</v>
-      </c>
-      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>250</v>
       </c>
       <c r="G12" s="1">
-        <v>200</v>
-      </c>
-      <c r="H12" s="1">
-        <v>200</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>250</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="7">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -2757,692 +2842,620 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>48</v>
+      <c r="F13" s="1">
+        <v>500</v>
       </c>
       <c r="G13" s="1">
-        <v>200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>200</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>500</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="7">
-        <v>100</v>
+        <v>1440</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>250</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12500</v>
       </c>
       <c r="G14" s="1">
-        <v>200</v>
-      </c>
-      <c r="H14" s="1">
-        <v>200</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12500</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="7">
-        <v>500</v>
+        <v>10080</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>75000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>75000</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43200</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="7">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="1">
-        <v>200</v>
-      </c>
-      <c r="H15" s="1">
-        <v>200</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="7">
+        <v>300</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1">
+        <v>400</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7">
         <v>1000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1">
-        <v>200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>200</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="7">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="1">
-        <v>200</v>
-      </c>
-      <c r="H17" s="1">
-        <v>200</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="1">
-        <v>200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>200</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>100</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>1000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50000</v>
       </c>
       <c r="G19" s="1">
-        <v>200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>50000</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="7">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>47</v>
+        <v>5000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>250000</v>
       </c>
       <c r="G20" s="1">
-        <v>200</v>
-      </c>
-      <c r="H20" s="1">
-        <v>200</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7">
-        <v>500</v>
+        <v>250000</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="1">
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1">
         <v>200</v>
       </c>
-      <c r="H21" s="1">
-        <v>200</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="F23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="1">
-        <v>200</v>
-      </c>
-      <c r="H22" s="1">
-        <v>200</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="2">
-        <v>22</v>
-      </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1">
-        <v>200</v>
-      </c>
-      <c r="H23" s="1">
-        <v>200</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="1">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="1">
-        <v>200</v>
-      </c>
-      <c r="H24" s="1">
-        <v>200</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="1">
-        <v>200</v>
-      </c>
-      <c r="H25" s="1">
-        <v>200</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>24</v>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>50</v>
+        <v>500</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25000</v>
       </c>
       <c r="G26" s="1">
-        <v>200</v>
-      </c>
-      <c r="H26" s="1">
-        <v>200</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>157</v>
+        <v>25000</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1000</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>48</v>
+        <v>200</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10000</v>
       </c>
       <c r="G27" s="1">
-        <v>200</v>
-      </c>
-      <c r="H27" s="1">
-        <v>200</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="2">
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>48</v>
+        <v>950</v>
+      </c>
+      <c r="F28" s="1">
+        <v>47500</v>
       </c>
       <c r="G28" s="1">
-        <v>200</v>
-      </c>
-      <c r="H28" s="1">
-        <v>200</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="2">
+        <v>47500</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7">
+        <v>25000</v>
+      </c>
+      <c r="C29" s="1">
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>48</v>
+        <v>4500</v>
+      </c>
+      <c r="F29" s="1">
+        <v>225000</v>
       </c>
       <c r="G29" s="1">
-        <v>200</v>
-      </c>
-      <c r="H29" s="1">
-        <v>200</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="1">
+        <v>225000</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7">
+        <v>500</v>
+      </c>
+      <c r="C30" s="2">
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>48</v>
+        <v>150</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7500</v>
       </c>
       <c r="G30" s="1">
-        <v>200</v>
-      </c>
-      <c r="H30" s="1">
-        <v>200</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>44</v>
+        <v>7500</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1500</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>48</v>
+        <v>440</v>
+      </c>
+      <c r="F31" s="1">
+        <v>22000</v>
       </c>
       <c r="G31" s="1">
-        <v>200</v>
-      </c>
-      <c r="H31" s="1">
-        <v>200</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>44</v>
+        <v>22000</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5000</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>48</v>
+        <v>1400</v>
+      </c>
+      <c r="F32" s="1">
+        <v>70000</v>
       </c>
       <c r="G32" s="1">
-        <v>200</v>
-      </c>
-      <c r="H32" s="1">
-        <v>200</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>70000</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B33" s="7">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>48</v>
+        <v>400</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20000</v>
       </c>
       <c r="G33" s="1">
-        <v>200</v>
-      </c>
-      <c r="H33" s="1">
-        <v>200</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="20" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>32</v>
+        <v>20000</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B34" s="7">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C34" s="2">
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>46</v>
+        <v>1900</v>
+      </c>
+      <c r="F34" s="1">
+        <v>95000</v>
       </c>
       <c r="G34" s="1">
-        <v>200</v>
-      </c>
-      <c r="H34" s="1">
-        <v>200</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>95000</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B35" s="7">
-        <v>1440</v>
-      </c>
-      <c r="C35" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C35" s="1">
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>46</v>
+        <v>9000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>450000</v>
       </c>
       <c r="G35" s="1">
-        <v>200</v>
-      </c>
-      <c r="H35" s="1">
-        <v>200</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>34</v>
+        <v>450000</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B36" s="7">
-        <v>10080</v>
-      </c>
-      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2">
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>48</v>
+        <v>450</v>
+      </c>
+      <c r="F36" s="1">
+        <v>22500</v>
       </c>
       <c r="G36" s="1">
-        <v>200</v>
-      </c>
-      <c r="H36" s="1">
-        <v>200</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>22500</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B37" s="7">
-        <v>43200</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
@@ -3451,24 +3464,21 @@
         <v>45</v>
       </c>
       <c r="E37" s="1">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>48</v>
+        <v>900</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45000</v>
       </c>
       <c r="G37" s="1">
-        <v>200</v>
-      </c>
-      <c r="H37" s="1">
-        <v>200</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>36</v>
+        <v>45000</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B38" s="7">
         <v>100</v>
@@ -3480,27 +3490,24 @@
         <v>45</v>
       </c>
       <c r="E38" s="1">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>46</v>
+        <v>1500</v>
+      </c>
+      <c r="F38" s="1">
+        <v>75000</v>
       </c>
       <c r="G38" s="1">
-        <v>200</v>
-      </c>
-      <c r="H38" s="1">
-        <v>200</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="20" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>75000</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B39" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C39" s="1">
         <v>38</v>
@@ -3509,77 +3516,68 @@
         <v>45</v>
       </c>
       <c r="E39" s="1">
-        <v>10</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>47</v>
+        <v>150</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7500</v>
       </c>
       <c r="G39" s="1">
-        <v>200</v>
-      </c>
-      <c r="H39" s="1">
-        <v>200</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>38</v>
+        <v>7500</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B40" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C40" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C40" s="2">
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>48</v>
+        <v>700</v>
+      </c>
+      <c r="F40" s="1">
+        <v>35000</v>
       </c>
       <c r="G40" s="1">
-        <v>200</v>
-      </c>
-      <c r="H40" s="1">
-        <v>200</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>35000</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B41" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C41" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C41" s="1">
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="1">
-        <v>10</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>48</v>
+        <v>3500</v>
+      </c>
+      <c r="F41" s="1">
+        <v>175000</v>
       </c>
       <c r="G41" s="1">
-        <v>200</v>
-      </c>
-      <c r="H41" s="1">
-        <v>200</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>192</v>
+        <v>175000</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3596,32 +3594,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showRuler="0" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="4" width="20.6640625" style="1"/>
     <col min="5" max="5" width="20.6640625" style="5"/>
-    <col min="6" max="6" width="20.6640625" style="1"/>
-    <col min="7" max="7" width="20.6640625" style="5"/>
-    <col min="8" max="9" width="20.6640625" style="1"/>
-    <col min="10" max="10" width="20.6640625" style="5"/>
-    <col min="11" max="16384" width="20.6640625" style="1"/>
+    <col min="6" max="8" width="20.6640625" style="1"/>
+    <col min="9" max="9" width="20.6640625" style="5"/>
+    <col min="10" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>40</v>
@@ -3630,126 +3626,114 @@
         <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="H1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>46</v>
+      <c r="E2" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>900</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45000</v>
       </c>
       <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="1">
-        <v>200</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
+        <v>45000</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>106</v>
+        <v>1800</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90000</v>
       </c>
       <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="1">
-        <v>200</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
+        <v>90000</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1">
         <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>49</v>
+        <v>3600</v>
+      </c>
+      <c r="G4" s="1">
+        <v>180000</v>
       </c>
       <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>200</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
+        <v>180000</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3758,94 +3742,85 @@
         <v>47</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25000</v>
       </c>
       <c r="H5" s="1">
-        <v>200</v>
-      </c>
-      <c r="I5" s="1">
-        <v>200</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>106</v>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="1">
-        <v>200</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
+      <c r="E7" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>106</v>
+        <v>2000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100000</v>
       </c>
       <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="1">
-        <v>200</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B8" s="7">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -3854,94 +3829,85 @@
         <v>47</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>108</v>
+        <v>600</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30000</v>
       </c>
       <c r="H8" s="1">
-        <v>200</v>
-      </c>
-      <c r="I8" s="1">
-        <v>200</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>1200</v>
+      </c>
+      <c r="G9" s="1">
+        <v>60000</v>
       </c>
       <c r="H9" s="1">
-        <v>200</v>
-      </c>
-      <c r="I9" s="1">
-        <v>200</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7">
         <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
+      <c r="E10" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>48</v>
+        <v>2400</v>
+      </c>
+      <c r="G10" s="1">
+        <v>120000</v>
       </c>
       <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="1">
-        <v>200</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
+        <v>120000</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B11" s="7">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -3950,440 +3916,398 @@
         <v>47</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25000</v>
       </c>
       <c r="H11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="1">
-        <v>200</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50000</v>
       </c>
       <c r="H12" s="1">
-        <v>200</v>
-      </c>
-      <c r="I12" s="1">
-        <v>200</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7">
         <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>47</v>
+      <c r="E13" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100000</v>
       </c>
       <c r="H13" s="1">
-        <v>200</v>
-      </c>
-      <c r="I13" s="1">
-        <v>200</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25000</v>
       </c>
       <c r="H14" s="1">
-        <v>200</v>
-      </c>
-      <c r="I14" s="1">
-        <v>200</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1">
         <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50000</v>
       </c>
       <c r="H15" s="1">
-        <v>200</v>
-      </c>
-      <c r="I15" s="1">
-        <v>200</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B16" s="7">
         <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>47</v>
+      <c r="E16" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100000</v>
       </c>
       <c r="H16" s="1">
-        <v>200</v>
-      </c>
-      <c r="I16" s="1">
-        <v>200</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B17" s="7">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G17" s="1">
+        <v>25000</v>
       </c>
       <c r="H17" s="1">
-        <v>200</v>
-      </c>
-      <c r="I17" s="1">
-        <v>200</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>47</v>
+      <c r="E18" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>50000</v>
       </c>
       <c r="H18" s="1">
-        <v>200</v>
-      </c>
-      <c r="I18" s="1">
-        <v>200</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B19" s="7">
         <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>47</v>
+      <c r="E19" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100000</v>
       </c>
       <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>200</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7">
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G20" s="1">
+        <v>25000</v>
       </c>
       <c r="H20" s="1">
-        <v>200</v>
-      </c>
-      <c r="I20" s="1">
-        <v>200</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>47</v>
+      <c r="E21" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="1">
-        <v>10</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>50000</v>
       </c>
       <c r="H21" s="1">
-        <v>200</v>
-      </c>
-      <c r="I21" s="1">
-        <v>200</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7">
         <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D22" s="1">
         <v>21</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>47</v>
+      <c r="E22" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>100000</v>
       </c>
       <c r="H22" s="1">
-        <v>200</v>
-      </c>
-      <c r="I22" s="1">
-        <v>200</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B23" s="7">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>107</v>
+        <v>600</v>
+      </c>
+      <c r="G23" s="1">
+        <v>30000</v>
       </c>
       <c r="H23" s="1">
-        <v>200</v>
-      </c>
-      <c r="I23" s="1">
-        <v>200</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>47</v>
+      <c r="E24" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>48</v>
+        <v>1200</v>
+      </c>
+      <c r="G24" s="1">
+        <v>60000</v>
       </c>
       <c r="H24" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="I24" s="1">
-        <v>200</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="B25" s="7">
         <v>72</v>
@@ -4394,983 +4318,890 @@
       <c r="D25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>47</v>
+      <c r="E25" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>48</v>
+        <v>2400</v>
+      </c>
+      <c r="G25" s="1">
+        <v>120000</v>
       </c>
       <c r="H25" s="1">
-        <v>200</v>
-      </c>
-      <c r="I25" s="1">
-        <v>200</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="20" customHeight="1">
+        <v>120000</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B26" s="7">
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1">
-        <v>10</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>107</v>
+        <v>400</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20000</v>
       </c>
       <c r="H26" s="1">
-        <v>200</v>
-      </c>
-      <c r="I26" s="1">
-        <v>200</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D27" s="1">
         <v>26</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>47</v>
+      <c r="E27" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>48</v>
+        <v>800</v>
+      </c>
+      <c r="G27" s="1">
+        <v>40000</v>
       </c>
       <c r="H27" s="1">
-        <v>200</v>
-      </c>
-      <c r="I27" s="1">
-        <v>200</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1">
+        <v>40000</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B28" s="7">
         <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>47</v>
+      <c r="E28" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>48</v>
+        <v>1600</v>
+      </c>
+      <c r="G28" s="1">
+        <v>80000</v>
       </c>
       <c r="H28" s="1">
-        <v>200</v>
-      </c>
-      <c r="I28" s="1">
-        <v>200</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="20" customHeight="1">
+        <v>80000</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1">
-        <v>10</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>107</v>
+        <v>1600</v>
+      </c>
+      <c r="G29" s="1">
+        <v>80000</v>
       </c>
       <c r="H29" s="1">
-        <v>200</v>
-      </c>
-      <c r="I29" s="1">
-        <v>200</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1">
+        <v>80000</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1">
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="D30" s="1">
         <v>29</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>47</v>
+      <c r="E30" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="1">
-        <v>10</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>48</v>
+        <v>3200</v>
+      </c>
+      <c r="G30" s="1">
+        <v>160000</v>
       </c>
       <c r="H30" s="1">
-        <v>200</v>
-      </c>
-      <c r="I30" s="1">
-        <v>200</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1">
+        <v>160000</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B31" s="7">
         <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>47</v>
+      <c r="E31" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F31" s="1">
-        <v>10</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>48</v>
+        <v>6400</v>
+      </c>
+      <c r="G31" s="1">
+        <v>320000</v>
       </c>
       <c r="H31" s="1">
-        <v>200</v>
-      </c>
-      <c r="I31" s="1">
-        <v>200</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1">
+        <v>320000</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1">
-        <v>10</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>107</v>
+        <v>3200</v>
+      </c>
+      <c r="G32" s="1">
+        <v>160000</v>
       </c>
       <c r="H32" s="1">
-        <v>200</v>
-      </c>
-      <c r="I32" s="1">
-        <v>200</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="20" customHeight="1">
+        <v>160000</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1">
         <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>108</v>
+      <c r="E33" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F33" s="1">
-        <v>10</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>48</v>
+        <v>6400</v>
+      </c>
+      <c r="G33" s="1">
+        <v>320000</v>
       </c>
       <c r="H33" s="1">
-        <v>200</v>
-      </c>
-      <c r="I33" s="1">
-        <v>200</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="20" customHeight="1">
+        <v>320000</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B34" s="7">
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>109</v>
+      <c r="E34" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F34" s="1">
-        <v>10</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>48</v>
+        <v>12800</v>
+      </c>
+      <c r="G34" s="1">
+        <v>640000</v>
       </c>
       <c r="H34" s="1">
-        <v>200</v>
-      </c>
-      <c r="I34" s="1">
-        <v>200</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="20" customHeight="1">
+        <v>640000</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1">
-        <v>10</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>107</v>
+        <v>700</v>
+      </c>
+      <c r="G35" s="1">
+        <v>35000</v>
       </c>
       <c r="H35" s="1">
-        <v>200</v>
-      </c>
-      <c r="I35" s="1">
-        <v>200</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="20" customHeight="1">
+        <v>35000</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1">
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>45</v>
+      <c r="E36" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F36" s="1">
-        <v>10</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>48</v>
+        <v>1400</v>
+      </c>
+      <c r="G36" s="1">
+        <v>70000</v>
       </c>
       <c r="H36" s="1">
-        <v>200</v>
-      </c>
-      <c r="I36" s="1">
-        <v>200</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="20" customHeight="1">
+        <v>70000</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B37" s="7">
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>45</v>
+      <c r="E37" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F37" s="1">
-        <v>10</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>48</v>
+        <v>2800</v>
+      </c>
+      <c r="G37" s="1">
+        <v>140000</v>
       </c>
       <c r="H37" s="1">
-        <v>200</v>
-      </c>
-      <c r="I37" s="1">
-        <v>200</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="20" customHeight="1">
+        <v>140000</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1">
         <v>8</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1">
-        <v>10</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>107</v>
+        <v>600</v>
+      </c>
+      <c r="G38" s="1">
+        <v>30000</v>
       </c>
       <c r="H38" s="1">
-        <v>200</v>
-      </c>
-      <c r="I38" s="1">
-        <v>200</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1">
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D39" s="1">
         <v>38</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>45</v>
+      <c r="E39" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F39" s="1">
-        <v>10</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>48</v>
+        <v>1200</v>
+      </c>
+      <c r="G39" s="1">
+        <v>60000</v>
       </c>
       <c r="H39" s="1">
-        <v>200</v>
-      </c>
-      <c r="I39" s="1">
-        <v>200</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B40" s="7">
         <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>45</v>
+      <c r="E40" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F40" s="1">
-        <v>10</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>48</v>
+        <v>2400</v>
+      </c>
+      <c r="G40" s="1">
+        <v>120000</v>
       </c>
       <c r="H40" s="1">
-        <v>200</v>
-      </c>
-      <c r="I40" s="1">
-        <v>200</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="20" customHeight="1">
+        <v>120000</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1">
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1">
-        <v>10</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>107</v>
+        <v>800</v>
+      </c>
+      <c r="G41" s="1">
+        <v>40000</v>
       </c>
       <c r="H41" s="1">
-        <v>200</v>
-      </c>
-      <c r="I41" s="1">
-        <v>200</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="20" customHeight="1">
+        <v>40000</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1">
         <v>24</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>45</v>
+      <c r="E42" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F42" s="1">
-        <v>10</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>48</v>
+        <v>1600</v>
+      </c>
+      <c r="G42" s="1">
+        <v>80000</v>
       </c>
       <c r="H42" s="1">
-        <v>200</v>
-      </c>
-      <c r="I42" s="1">
-        <v>200</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="20" customHeight="1">
+        <v>80000</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B43" s="7">
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>45</v>
+      <c r="E43" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F43" s="1">
-        <v>10</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>48</v>
+        <v>3200</v>
+      </c>
+      <c r="G43" s="1">
+        <v>160000</v>
       </c>
       <c r="H43" s="1">
-        <v>200</v>
-      </c>
-      <c r="I43" s="1">
-        <v>200</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="20" customHeight="1">
+        <v>160000</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="1">
-        <v>10</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>25000</v>
       </c>
       <c r="H44" s="1">
-        <v>200</v>
-      </c>
-      <c r="I44" s="1">
-        <v>200</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1">
         <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>45</v>
+      <c r="E45" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F45" s="1">
-        <v>10</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>50000</v>
       </c>
       <c r="H45" s="1">
-        <v>200</v>
-      </c>
-      <c r="I45" s="1">
-        <v>200</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B46" s="7">
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D46" s="1">
         <v>45</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>45</v>
+      <c r="E46" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F46" s="1">
-        <v>10</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>100000</v>
       </c>
       <c r="H46" s="1">
-        <v>200</v>
-      </c>
-      <c r="I46" s="1">
-        <v>200</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" s="1">
-        <v>10</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>107</v>
+        <v>500</v>
+      </c>
+      <c r="G47" s="1">
+        <v>25000</v>
       </c>
       <c r="H47" s="1">
-        <v>200</v>
-      </c>
-      <c r="I47" s="1">
-        <v>200</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1">
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>45</v>
+      <c r="E48" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F48" s="1">
-        <v>10</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>50000</v>
       </c>
       <c r="H48" s="1">
-        <v>200</v>
-      </c>
-      <c r="I48" s="1">
-        <v>200</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B49" s="7">
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>45</v>
+      <c r="E49" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F49" s="1">
-        <v>10</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>48</v>
+        <v>2000</v>
+      </c>
+      <c r="G49" s="1">
+        <v>100000</v>
       </c>
       <c r="H49" s="1">
-        <v>200</v>
-      </c>
-      <c r="I49" s="1">
-        <v>200</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="20" customHeight="1">
+        <v>100000</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="1">
-        <v>10</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>107</v>
+        <v>550</v>
+      </c>
+      <c r="G50" s="1">
+        <v>27500</v>
       </c>
       <c r="H50" s="1">
-        <v>200</v>
-      </c>
-      <c r="I50" s="1">
-        <v>200</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="20" customHeight="1">
+        <v>27500</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B51" s="1">
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>45</v>
+      <c r="E51" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F51" s="1">
-        <v>10</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>48</v>
+        <v>1100</v>
+      </c>
+      <c r="G51" s="1">
+        <v>55000</v>
       </c>
       <c r="H51" s="1">
-        <v>200</v>
-      </c>
-      <c r="I51" s="1">
-        <v>200</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="20" customHeight="1">
+        <v>55000</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B52" s="7">
         <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>45</v>
+      <c r="E52" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F52" s="1">
-        <v>10</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>48</v>
+        <v>2200</v>
+      </c>
+      <c r="G52" s="1">
+        <v>110000</v>
       </c>
       <c r="H52" s="1">
-        <v>200</v>
-      </c>
-      <c r="I52" s="1">
-        <v>200</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="20" customHeight="1">
+        <v>110000</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D53" s="2">
         <v>52</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F53" s="1">
-        <v>10</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>107</v>
+        <v>600</v>
+      </c>
+      <c r="G53" s="1">
+        <v>30000</v>
       </c>
       <c r="H53" s="1">
-        <v>200</v>
-      </c>
-      <c r="I53" s="1">
-        <v>200</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B54" s="1">
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>45</v>
+      <c r="E54" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F54" s="1">
-        <v>10</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>48</v>
+        <v>1200</v>
+      </c>
+      <c r="G54" s="1">
+        <v>60000</v>
       </c>
       <c r="H54" s="1">
-        <v>200</v>
-      </c>
-      <c r="I54" s="1">
-        <v>200</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B55" s="7">
         <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>45</v>
+      <c r="E55" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F55" s="1">
-        <v>10</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>48</v>
+        <v>2400</v>
+      </c>
+      <c r="G55" s="1">
+        <v>120000</v>
       </c>
       <c r="H55" s="1">
-        <v>200</v>
-      </c>
-      <c r="I55" s="1">
-        <v>200</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>192</v>
+        <v>120000</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5387,29 +5218,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="5"/>
-    <col min="7" max="8" width="20.6640625" style="1"/>
-    <col min="9" max="9" width="20.6640625" style="5"/>
-    <col min="10" max="16384" width="20.6640625" style="1"/>
+    <col min="5" max="7" width="20.6640625" style="1"/>
+    <col min="8" max="8" width="20.6640625" style="5"/>
+    <col min="9" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -5418,24 +5247,21 @@
         <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1">
         <v>0.1</v>
@@ -5444,27 +5270,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>200</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5473,27 +5296,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>106</v>
+      <c r="F3" s="1">
+        <v>500</v>
       </c>
       <c r="G3" s="1">
-        <v>200</v>
-      </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -5502,27 +5322,24 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2000</v>
       </c>
       <c r="G4" s="1">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -5531,27 +5348,24 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8000</v>
       </c>
       <c r="G5" s="1">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1">
-        <v>200</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
@@ -5560,27 +5374,24 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>400</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20000</v>
       </c>
       <c r="G6" s="1">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1">
         <v>500</v>
@@ -5589,27 +5400,24 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>108</v>
+        <v>1200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60000</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B8" s="7">
         <v>1500</v>
@@ -5618,27 +5426,24 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F8" s="1">
+        <v>165000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>165000</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G8" s="1">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
@@ -5647,27 +5452,24 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
       </c>
       <c r="G9" s="1">
-        <v>200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -5676,27 +5478,24 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>49</v>
+      <c r="F10" s="1">
+        <v>500</v>
       </c>
       <c r="G10" s="1">
-        <v>200</v>
-      </c>
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -5705,27 +5504,24 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2000</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
-      </c>
-      <c r="H11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -5734,27 +5530,24 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8000</v>
       </c>
       <c r="G12" s="1">
-        <v>200</v>
-      </c>
-      <c r="H12" s="1">
-        <v>200</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1">
         <v>150</v>
@@ -5763,27 +5556,24 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>400</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20000</v>
       </c>
       <c r="G13" s="1">
-        <v>200</v>
-      </c>
-      <c r="H13" s="1">
-        <v>200</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1">
         <v>500</v>
@@ -5792,27 +5582,24 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>108</v>
+        <v>1200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>60000</v>
       </c>
       <c r="G14" s="1">
-        <v>200</v>
-      </c>
-      <c r="H14" s="1">
-        <v>200</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B15" s="7">
         <v>1500</v>
@@ -5821,27 +5608,24 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>106</v>
+        <v>3300</v>
+      </c>
+      <c r="F15" s="1">
+        <v>165000</v>
       </c>
       <c r="G15" s="1">
-        <v>200</v>
-      </c>
-      <c r="H15" s="1">
-        <v>200</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>165000</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1">
         <v>0.1</v>
@@ -5850,27 +5634,24 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
       </c>
       <c r="G16" s="1">
-        <v>200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>200</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -5879,27 +5660,24 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>106</v>
+      <c r="F17" s="1">
+        <v>500</v>
       </c>
       <c r="G17" s="1">
-        <v>200</v>
-      </c>
-      <c r="H17" s="1">
-        <v>200</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -5908,27 +5686,24 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2000</v>
       </c>
       <c r="G18" s="1">
-        <v>200</v>
-      </c>
-      <c r="H18" s="1">
-        <v>200</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -5937,27 +5712,24 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>147</v>
+        <v>160</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8000</v>
       </c>
       <c r="G19" s="1">
-        <v>200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1">
         <v>150</v>
@@ -5966,27 +5738,24 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>106</v>
+        <v>400</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20000</v>
       </c>
       <c r="G20" s="1">
-        <v>200</v>
-      </c>
-      <c r="H20" s="1">
-        <v>200</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1">
         <v>500</v>
@@ -5995,27 +5764,24 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>108</v>
+        <v>1200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>60000</v>
       </c>
       <c r="G21" s="1">
-        <v>200</v>
-      </c>
-      <c r="H21" s="1">
-        <v>200</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B22" s="7">
         <v>1500</v>
@@ -6024,27 +5790,24 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>49</v>
+        <v>3300</v>
+      </c>
+      <c r="F22" s="1">
+        <v>165000</v>
       </c>
       <c r="G22" s="1">
-        <v>200</v>
-      </c>
-      <c r="H22" s="1">
-        <v>200</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1">
+        <v>165000</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1">
         <v>0.3</v>
@@ -6053,27 +5816,24 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>50</v>
       </c>
       <c r="G23" s="1">
-        <v>200</v>
-      </c>
-      <c r="H23" s="1">
-        <v>200</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -6082,27 +5842,24 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>106</v>
+      <c r="F24" s="1">
+        <v>500</v>
       </c>
       <c r="G24" s="1">
-        <v>200</v>
-      </c>
-      <c r="H24" s="1">
-        <v>200</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1">
         <v>30</v>
@@ -6111,27 +5868,24 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2000</v>
       </c>
       <c r="G25" s="1">
-        <v>200</v>
-      </c>
-      <c r="H25" s="1">
-        <v>200</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1">
         <v>150</v>
@@ -6140,27 +5894,24 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E26" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8000</v>
       </c>
       <c r="G26" s="1">
-        <v>200</v>
-      </c>
-      <c r="H26" s="1">
-        <v>200</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1">
         <v>500</v>
@@ -6169,389 +5920,444 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E27" s="1">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>106</v>
+        <v>400</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20000</v>
       </c>
       <c r="G27" s="1">
-        <v>200</v>
-      </c>
-      <c r="H27" s="1">
-        <v>200</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="1">
+        <v>125</v>
+      </c>
+      <c r="B28" s="7">
         <v>1500</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="7">
         <v>27</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="1">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>108</v>
+      <c r="D28" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>60000</v>
       </c>
       <c r="G28" s="1">
-        <v>200</v>
-      </c>
-      <c r="H28" s="1">
-        <v>200</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>60000</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B29" s="7">
         <v>4500</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>28</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3300</v>
+      </c>
+      <c r="F29" s="1">
+        <v>165000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>165000</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>30</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="7">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="7">
         <v>10</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="C32" s="7">
+        <v>31</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="7">
+        <v>80</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="7">
+        <v>50</v>
+      </c>
+      <c r="C33" s="7">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="7">
+        <v>320</v>
+      </c>
+      <c r="F33" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>16000</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="7">
+        <v>150</v>
+      </c>
+      <c r="C34" s="7">
+        <v>33</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="7">
+        <v>800</v>
+      </c>
+      <c r="F34" s="1">
+        <v>40000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>40000</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="7">
+        <v>500</v>
+      </c>
+      <c r="C35" s="7">
+        <v>34</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2400</v>
+      </c>
+      <c r="F35" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C36" s="7">
+        <v>35</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="7">
+        <v>6600</v>
+      </c>
+      <c r="F36" s="1">
+        <v>330000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>330000</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>36</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="7">
+        <v>155</v>
+      </c>
+      <c r="F37" s="7">
+        <v>7750</v>
+      </c>
+      <c r="G37" s="7">
+        <v>7750</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="7">
+        <v>37</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="7">
+        <v>300</v>
+      </c>
+      <c r="F38" s="7">
+        <v>15000</v>
+      </c>
+      <c r="G38" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <v>38</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="7">
+        <v>600</v>
+      </c>
+      <c r="F39" s="7">
+        <v>30000</v>
+      </c>
+      <c r="G39" s="7">
+        <v>30000</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1">
+      <c r="A40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="7">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7">
+        <v>39</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="7">
         <v>200</v>
       </c>
-      <c r="H29" s="1">
-        <v>200</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>29</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="1">
-        <v>200</v>
-      </c>
-      <c r="H30" s="1">
-        <v>200</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="F40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="7">
         <v>30</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="1">
-        <v>200</v>
-      </c>
-      <c r="H31" s="1">
-        <v>200</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="1">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2">
-        <v>31</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="1">
-        <v>200</v>
-      </c>
-      <c r="H32" s="1">
-        <v>200</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="1">
-        <v>50</v>
-      </c>
-      <c r="C33" s="1">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="1">
-        <v>200</v>
-      </c>
-      <c r="H33" s="1">
-        <v>200</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="20" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="1">
-        <v>200</v>
-      </c>
-      <c r="C34" s="1">
-        <v>33</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="1">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="1">
-        <v>200</v>
-      </c>
-      <c r="H34" s="1">
-        <v>200</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="1">
-        <v>600</v>
-      </c>
-      <c r="C35" s="2">
-        <v>34</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="1">
-        <v>200</v>
-      </c>
-      <c r="H35" s="1">
-        <v>200</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="7">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1">
-        <v>35</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="1">
-        <v>200</v>
-      </c>
-      <c r="H36" s="1">
-        <v>200</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="7">
-        <v>30</v>
-      </c>
-      <c r="C37" s="1">
-        <v>36</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="1">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="1">
-        <v>200</v>
-      </c>
-      <c r="H37" s="1">
-        <v>200</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="C41" s="7">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="7">
+        <v>750</v>
+      </c>
+      <c r="F41" s="1">
+        <v>37500</v>
+      </c>
+      <c r="G41" s="1">
+        <v>37500</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="7">
         <v>90</v>
       </c>
-      <c r="C38" s="2">
-        <v>37</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="1">
-        <v>200</v>
-      </c>
-      <c r="H38" s="1">
-        <v>200</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="20" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="C42" s="7">
+        <v>41</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1800</v>
+      </c>
+      <c r="F42" s="1">
+        <v>90000</v>
+      </c>
+      <c r="G42" s="1">
+        <v>90000</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="7">
         <v>250</v>
       </c>
-      <c r="C39" s="1">
-        <v>38</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="1">
-        <v>10</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="1">
-        <v>200</v>
-      </c>
-      <c r="H39" s="1">
-        <v>200</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" ht="20" customHeight="1">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="20" customHeight="1">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" ht="20" customHeight="1">
+      <c r="C43" s="7">
+        <v>42</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="C44" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="20" customHeight="1">
+    <row r="46" spans="1:8" ht="20" customHeight="1">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="1:9" ht="20" customHeight="1">
+    <row r="47" spans="1:8" ht="20" customHeight="1">
       <c r="C47" s="2"/>
     </row>
     <row r="49" spans="2:3" ht="20" customHeight="1">
@@ -6583,29 +6389,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="5"/>
-    <col min="7" max="8" width="20.6640625" style="1"/>
-    <col min="9" max="9" width="20.6640625" style="5"/>
-    <col min="10" max="16384" width="20.6640625" style="1"/>
+    <col min="5" max="7" width="20.6640625" style="1"/>
+    <col min="8" max="8" width="20.6640625" style="5"/>
+    <col min="9" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>40</v>
@@ -6614,24 +6418,21 @@
         <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6640,27 +6441,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>250</v>
       </c>
       <c r="G2" s="1">
-        <v>200</v>
-      </c>
-      <c r="H2" s="1">
-        <v>200</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>250</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -6669,27 +6467,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>200</v>
-      </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -6698,27 +6493,24 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>108</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2500</v>
       </c>
       <c r="G4" s="1">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>200</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>2500</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -6727,27 +6519,24 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>155</v>
+        <v>130</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6500</v>
       </c>
       <c r="G5" s="1">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1">
-        <v>200</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>6500</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -6756,27 +6545,24 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>108</v>
+        <v>300</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15000</v>
       </c>
       <c r="G6" s="1">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1">
-        <v>200</v>
-      </c>
-      <c r="I6" s="5" t="s">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1">
         <v>480</v>
@@ -6785,27 +6571,24 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>156</v>
+        <v>650</v>
+      </c>
+      <c r="F7" s="1">
+        <v>32500</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>32500</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B8" s="7">
         <v>900</v>
@@ -6814,27 +6597,24 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50000</v>
       </c>
       <c r="G8" s="1">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1">
-        <v>200</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>50000</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1">
         <v>1440</v>
@@ -6843,27 +6623,24 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>1500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>75000</v>
       </c>
       <c r="G9" s="1">
-        <v>200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>75000</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -6872,27 +6649,24 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25000</v>
       </c>
       <c r="G10" s="1">
-        <v>200</v>
-      </c>
-      <c r="H10" s="1">
-        <v>200</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -6901,36 +6675,33 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>108</v>
+        <v>900</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45000</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
-      </c>
-      <c r="H11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="5" t="s">
+        <v>45000</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="7"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -7038,8 +6809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7049,15 +6820,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1">
         <v>0.2</v>
@@ -7065,7 +6836,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1">
         <v>0.25</v>
@@ -7073,7 +6844,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B4" s="7">
         <v>0.5</v>
@@ -7081,7 +6852,7 @@
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
@@ -7089,7 +6860,7 @@
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
@@ -7097,7 +6868,7 @@
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B7" s="7">
         <v>0.5</v>
@@ -7105,7 +6876,7 @@
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B8" s="7">
         <v>0.5</v>
@@ -7113,7 +6884,7 @@
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="B9" s="7">
         <v>0.5</v>
@@ -7121,7 +6892,7 @@
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B10" s="7">
         <v>0.5</v>
@@ -7129,7 +6900,7 @@
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1">
         <v>0.3</v>
@@ -7137,7 +6908,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1">
         <v>0.3</v>
@@ -7145,7 +6916,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B13" s="1">
         <v>0.3</v>
@@ -7153,7 +6924,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1">
         <v>0.3</v>
@@ -7161,7 +6932,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1">
         <v>0.3</v>
@@ -7169,7 +6940,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B16" s="1">
         <v>0.3</v>
@@ -7177,7 +6948,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
@@ -7185,7 +6956,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1">
         <v>0.3</v>
@@ -7193,7 +6964,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1">
         <v>0.3</v>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="920" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="1740" yWindow="1600" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -696,23 +696,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>taxesBonus_1</t>
-  </si>
-  <si>
     <t>coinBonus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>taxesBonus_2</t>
-  </si>
-  <si>
     <t>coinBonus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>taxesBonus_3</t>
-  </si>
-  <si>
     <t>citizenBonus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -830,6 +821,18 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +989,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="514">
+  <cellStyleXfs count="526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1001,6 +1004,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1536,7 +1551,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="514">
+  <cellStyles count="526">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1796,6 +1811,12 @@
     <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2048,6 +2069,12 @@
     <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2499,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3596,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3664,7 +3691,7 @@
         <v>45000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -3693,7 +3720,7 @@
         <v>90000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -3722,7 +3749,7 @@
         <v>180000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3751,7 +3778,7 @@
         <v>25000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3780,7 +3807,7 @@
         <v>50000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3809,7 +3836,7 @@
         <v>100000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3838,7 +3865,7 @@
         <v>30000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3867,7 +3894,7 @@
         <v>60000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3896,7 +3923,7 @@
         <v>120000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3925,7 +3952,7 @@
         <v>25000</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3954,7 +3981,7 @@
         <v>50000</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3983,7 +4010,7 @@
         <v>100000</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4012,7 +4039,7 @@
         <v>25000</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4041,7 +4068,7 @@
         <v>50000</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4070,7 +4097,7 @@
         <v>100000</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
@@ -4099,7 +4126,7 @@
         <v>25000</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
@@ -4128,7 +4155,7 @@
         <v>50000</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
@@ -4157,7 +4184,7 @@
         <v>100000</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
@@ -4186,7 +4213,7 @@
         <v>25000</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
@@ -4215,7 +4242,7 @@
         <v>50000</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
@@ -4244,18 +4271,18 @@
         <v>100000</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="B23" s="7">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
@@ -4273,18 +4300,18 @@
         <v>30000</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>198</v>
+      <c r="A24" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D24" s="1">
         <v>23</v>
@@ -4302,18 +4329,18 @@
         <v>60000</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B25" s="7">
         <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
@@ -4331,7 +4358,7 @@
         <v>120000</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
@@ -4342,7 +4369,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
@@ -4360,7 +4387,7 @@
         <v>20000</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
@@ -4371,7 +4398,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D27" s="1">
         <v>26</v>
@@ -4389,7 +4416,7 @@
         <v>40000</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
@@ -4400,7 +4427,7 @@
         <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
@@ -4418,7 +4445,7 @@
         <v>80000</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
@@ -4429,7 +4456,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
@@ -4447,7 +4474,7 @@
         <v>80000</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
@@ -4458,7 +4485,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1">
         <v>29</v>
@@ -4476,7 +4503,7 @@
         <v>160000</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
@@ -4487,7 +4514,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D31" s="1">
         <v>30</v>
@@ -4505,7 +4532,7 @@
         <v>320000</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
@@ -4516,7 +4543,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
@@ -4534,7 +4561,7 @@
         <v>160000</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
@@ -4545,7 +4572,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
@@ -4563,7 +4590,7 @@
         <v>320000</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
@@ -4574,7 +4601,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1">
         <v>33</v>
@@ -4592,7 +4619,7 @@
         <v>640000</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
@@ -4603,7 +4630,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
@@ -4621,7 +4648,7 @@
         <v>35000</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
@@ -4632,7 +4659,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D36" s="1">
         <v>35</v>
@@ -4650,7 +4677,7 @@
         <v>70000</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
@@ -4661,7 +4688,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
@@ -4679,7 +4706,7 @@
         <v>140000</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
@@ -4690,7 +4717,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
@@ -4708,7 +4735,7 @@
         <v>30000</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
@@ -4719,7 +4746,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D39" s="1">
         <v>38</v>
@@ -4737,7 +4764,7 @@
         <v>60000</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
@@ -4748,7 +4775,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
@@ -4766,7 +4793,7 @@
         <v>120000</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
@@ -4777,7 +4804,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D41" s="2">
         <v>40</v>
@@ -4795,7 +4822,7 @@
         <v>40000</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
@@ -4806,7 +4833,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D42" s="1">
         <v>41</v>
@@ -4824,7 +4851,7 @@
         <v>80000</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1">
@@ -4835,7 +4862,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D43" s="1">
         <v>42</v>
@@ -4853,7 +4880,7 @@
         <v>160000</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="20" customHeight="1">
@@ -4864,7 +4891,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
@@ -4882,7 +4909,7 @@
         <v>25000</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="20" customHeight="1">
@@ -4893,7 +4920,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
@@ -4911,7 +4938,7 @@
         <v>50000</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="20" customHeight="1">
@@ -4922,7 +4949,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D46" s="1">
         <v>45</v>
@@ -4940,7 +4967,7 @@
         <v>100000</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="20" customHeight="1">
@@ -4951,7 +4978,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
@@ -4969,7 +4996,7 @@
         <v>25000</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="20" customHeight="1">
@@ -4980,7 +5007,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D48" s="1">
         <v>47</v>
@@ -4998,7 +5025,7 @@
         <v>50000</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="20" customHeight="1">
@@ -5009,7 +5036,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
@@ -5027,7 +5054,7 @@
         <v>100000</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1">
@@ -5038,7 +5065,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
@@ -5056,7 +5083,7 @@
         <v>27500</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="20" customHeight="1">
@@ -5067,7 +5094,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
@@ -5085,7 +5112,7 @@
         <v>55000</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="20" customHeight="1">
@@ -5096,7 +5123,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D52" s="1">
         <v>51</v>
@@ -5114,7 +5141,7 @@
         <v>110000</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="20" customHeight="1">
@@ -5125,7 +5152,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D53" s="2">
         <v>52</v>
@@ -5143,7 +5170,7 @@
         <v>30000</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="20" customHeight="1">
@@ -5154,7 +5181,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D54" s="1">
         <v>53</v>
@@ -5172,7 +5199,7 @@
         <v>60000</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="20" customHeight="1">
@@ -5183,7 +5210,7 @@
         <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
@@ -5201,7 +5228,7 @@
         <v>120000</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5296,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -5308,7 +5335,7 @@
         <v>500</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -5322,7 +5349,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -5334,7 +5361,7 @@
         <v>2000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -5374,7 +5401,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E6" s="1">
         <v>400</v>
@@ -5386,7 +5413,7 @@
         <v>20000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -5400,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E7" s="1">
         <v>1200</v>
@@ -5412,7 +5439,7 @@
         <v>60000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -5452,7 +5479,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5464,7 +5491,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -5478,7 +5505,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -5490,7 +5517,7 @@
         <v>500</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -5530,7 +5557,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E12" s="1">
         <v>160</v>
@@ -5542,7 +5569,7 @@
         <v>8000</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -5556,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1">
         <v>400</v>
@@ -5568,7 +5595,7 @@
         <v>20000</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -5608,7 +5635,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E15" s="1">
         <v>3300</v>
@@ -5620,7 +5647,7 @@
         <v>165000</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -5634,7 +5661,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -5646,7 +5673,7 @@
         <v>50</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -5686,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E18" s="1">
         <v>40</v>
@@ -5698,7 +5725,7 @@
         <v>2000</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -5712,7 +5739,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E19" s="1">
         <v>160</v>
@@ -5724,7 +5751,7 @@
         <v>8000</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -5764,7 +5791,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E21" s="1">
         <v>1200</v>
@@ -5776,7 +5803,7 @@
         <v>60000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -5790,7 +5817,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E22" s="1">
         <v>3300</v>
@@ -5802,7 +5829,7 @@
         <v>165000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -5842,7 +5869,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -5854,7 +5881,7 @@
         <v>500</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -5868,7 +5895,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E25" s="1">
         <v>40</v>
@@ -5880,7 +5907,7 @@
         <v>2000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -5920,7 +5947,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E27" s="1">
         <v>400</v>
@@ -5932,7 +5959,7 @@
         <v>20000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -5946,7 +5973,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E28" s="7">
         <v>1200</v>
@@ -5958,7 +5985,7 @@
         <v>60000</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -5972,7 +5999,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E29" s="7">
         <v>3300</v>
@@ -5984,7 +6011,7 @@
         <v>165000</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -5998,7 +6025,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
@@ -6010,7 +6037,7 @@
         <v>100</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -6024,7 +6051,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E31" s="7">
         <v>20</v>
@@ -6036,7 +6063,7 @@
         <v>1000</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -6050,7 +6077,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E32" s="7">
         <v>80</v>
@@ -6145,7 +6172,7 @@
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B36" s="7">
         <v>1500</v>
@@ -6154,7 +6181,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E36" s="7">
         <v>6600</v>
@@ -6166,12 +6193,12 @@
         <v>330000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B37" s="7">
         <v>0.2</v>
@@ -6197,7 +6224,7 @@
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B38" s="7">
         <v>0.5</v>
@@ -6223,7 +6250,7 @@
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B39" s="7">
         <v>1</v>
@@ -6249,7 +6276,7 @@
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B40" s="7">
         <v>7</v>
@@ -6432,7 +6459,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6458,7 +6485,7 @@
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -6484,7 +6511,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -6809,7 +6836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1960" windowWidth="36220" windowHeight="18520" tabRatio="883"/>
+    <workbookView xWindow="2180" yWindow="560" windowWidth="36220" windowHeight="18520" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="212">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -750,6 +750,14 @@
   </si>
   <si>
     <t>FLOAT_effect2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1为城墙战损降低20% 2为暗仓提升20%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +914,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="554">
+  <cellStyleXfs count="562">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -921,6 +929,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1496,7 +1512,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="554">
+  <cellStyles count="562">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1776,6 +1792,10 @@
     <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2048,6 +2068,10 @@
     <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2499,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -6781,10 +6805,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6792,7 +6816,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>143</v>
       </c>
@@ -6802,19 +6826,25 @@
       <c r="C1" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="D1" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C2" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
@@ -6822,103 +6852,105 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B5" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>147</v>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B6" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>148</v>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B7" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>149</v>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B8" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>179</v>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="B9" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="B11" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>200</v>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B12" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>201</v>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="B13" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>203</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B15" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" s="1">
         <v>0.2</v>
@@ -6926,7 +6958,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1">
         <v>0.2</v>
@@ -6934,17 +6966,9 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="1">
         <v>0.2</v>
       </c>
     </row>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="560" windowWidth="36220" windowHeight="18520" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="7320" yWindow="1160" windowWidth="25600" windowHeight="16060" tabRatio="381" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="220">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -705,46 +705,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>citizenBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_effect1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -753,11 +713,66 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>STR_desc</t>
+    <t>masterOfDefender</t>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+  </si>
+  <si>
+    <t>woodBonus</t>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+  </si>
+  <si>
+    <t>ironBonus</t>
+  </si>
+  <si>
+    <t>foodBonus</t>
+  </si>
+  <si>
+    <t>coinBonus</t>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+  </si>
+  <si>
+    <t>gemClass_1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1为城墙战损降低20% 2为暗仓提升20%</t>
+    <t>gemClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -913,8 +928,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="562">
+  <cellStyleXfs count="572">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1481,8 +1520,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1511,8 +1560,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="562">
+  <cellStyles count="572">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1796,6 +1854,11 @@
     <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2072,6 +2135,11 @@
     <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2523,7 +2591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5218,8 +5286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6250,7 +6318,7 @@
         <v>194</v>
       </c>
       <c r="B40" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C40" s="7">
         <v>39</v>
@@ -6259,13 +6327,13 @@
         <v>43</v>
       </c>
       <c r="E40" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F40" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="G40" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>174</v>
@@ -6276,7 +6344,7 @@
         <v>132</v>
       </c>
       <c r="B41" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7">
         <v>40</v>
@@ -6285,13 +6353,13 @@
         <v>43</v>
       </c>
       <c r="E41" s="7">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F41" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="G41" s="1">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>174</v>
@@ -6302,7 +6370,7 @@
         <v>133</v>
       </c>
       <c r="B42" s="7">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C42" s="7">
         <v>41</v>
@@ -6311,13 +6379,13 @@
         <v>43</v>
       </c>
       <c r="E42" s="7">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F42" s="1">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="G42" s="1">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>174</v>
@@ -6328,7 +6396,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="7">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C43" s="7">
         <v>42</v>
@@ -6337,23 +6405,95 @@
         <v>43</v>
       </c>
       <c r="E43" s="7">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F43" s="1">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="G43" s="1">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20" customHeight="1">
-      <c r="C44" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="20" customHeight="1">
-      <c r="B46" s="7"/>
+    <row r="44" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="7">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7">
+        <v>43</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="7">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A45" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="7">
+        <v>100</v>
+      </c>
+      <c r="C45" s="7">
+        <v>44</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="7">
+        <v>100</v>
+      </c>
+      <c r="F45" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A46" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
       <c r="C47" s="2"/>
@@ -6805,10 +6945,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6816,161 +6956,171 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B10" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="12">
         <v>0.2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="12">
         <v>0.2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="35640" windowHeight="19860" tabRatio="381" activeTab="2"/>
+    <workbookView xWindow="860" yWindow="0" windowWidth="35640" windowHeight="19860" tabRatio="381" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -957,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="630">
+  <cellStyleXfs count="634">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -972,6 +972,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1632,7 +1636,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="630">
+  <cellStyles count="634">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1950,6 +1954,8 @@
     <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2260,6 +2266,8 @@
     <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5404,10 +5412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5447,779 +5455,779 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="2">
+        <v>212</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="7">
         <v>100</v>
       </c>
-      <c r="G2" s="1">
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="7">
         <v>100</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>46</v>
+      <c r="F3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1">
-        <v>160</v>
-      </c>
-      <c r="F5" s="1">
-        <v>16000</v>
-      </c>
       <c r="G5" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>102</v>
+      <c r="A6" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B6" s="1">
-        <v>150</v>
-      </c>
-      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>103</v>
+      <c r="A7" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B7" s="1">
-        <v>500</v>
-      </c>
-      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="G7" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="1">
-        <v>3300</v>
+        <v>160</v>
       </c>
       <c r="F8" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="G8" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>105</v>
+      <c r="A9" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="1">
+        <v>150</v>
+      </c>
+      <c r="C9" s="7">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>106</v>
+      <c r="A10" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
+        <v>500</v>
+      </c>
+      <c r="C10" s="7">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="G10" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
       <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="1">
-        <v>40</v>
+        <v>3300</v>
       </c>
       <c r="F11" s="1">
-        <v>4000</v>
+        <v>330000</v>
       </c>
       <c r="G11" s="1">
-        <v>4000</v>
+        <v>330000</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>108</v>
+      <c r="A12" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B12" s="1">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="7">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>109</v>
+      <c r="A13" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B13" s="1">
-        <v>150</v>
-      </c>
-      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>110</v>
+      <c r="A14" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B14" s="1">
-        <v>500</v>
-      </c>
-      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="G14" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="1">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="1">
-        <v>3300</v>
+        <v>160</v>
       </c>
       <c r="F15" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="G15" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>112</v>
+      <c r="A16" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="C16" s="7">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1">
+        <v>500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>120000</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3300</v>
+      </c>
+      <c r="F18" s="1">
+        <v>330000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>330000</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C20" s="7">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F20" s="1">
         <v>1000</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G20" s="1">
         <v>1000</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="1">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="1">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="1">
-        <v>160</v>
-      </c>
-      <c r="F19" s="1">
-        <v>16000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>16000</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1">
-        <v>150</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="1">
-        <v>400</v>
-      </c>
-      <c r="F20" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>40000</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>117</v>
+      <c r="A21" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B21" s="1">
-        <v>500</v>
-      </c>
-      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7">
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E21" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="G21" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="A22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="1">
+        <v>50</v>
+      </c>
+      <c r="C22" s="7">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E22" s="1">
-        <v>3300</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="G22" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>119</v>
+      <c r="A23" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B23" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="2">
+        <v>150</v>
+      </c>
+      <c r="C23" s="7">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="F23" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>120</v>
+      <c r="A24" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
+        <v>500</v>
+      </c>
+      <c r="C24" s="7">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="1">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="F24" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="G24" s="1">
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="1">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="A25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="7">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E25" s="1">
-        <v>40</v>
+        <v>3300</v>
       </c>
       <c r="F25" s="1">
-        <v>4000</v>
+        <v>330000</v>
       </c>
       <c r="G25" s="1">
-        <v>4000</v>
+        <v>330000</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>122</v>
+      <c r="A26" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B26" s="1">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="7">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E26" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="G26" s="1">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>123</v>
+      <c r="A27" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B27" s="1">
-        <v>150</v>
-      </c>
-      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E27" s="1">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="1">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>124</v>
+      <c r="A28" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B28" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="7">
-        <v>1200</v>
+      <c r="E28" s="1">
+        <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>120000</v>
+        <v>4000</v>
       </c>
       <c r="G28" s="1">
-        <v>120000</v>
-      </c>
-      <c r="H28" s="6" t="s">
+        <v>4000</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1500</v>
+        <v>122</v>
+      </c>
+      <c r="B29" s="1">
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>28</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="7">
-        <v>3300</v>
+      <c r="E29" s="1">
+        <v>160</v>
       </c>
       <c r="F29" s="1">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="G29" s="1">
-        <v>330000</v>
-      </c>
-      <c r="H29" s="6" t="s">
+        <v>16000</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.1</v>
+      <c r="A30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="1">
+        <v>150</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="7">
-        <v>2</v>
+      <c r="D30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="1">
+        <v>400</v>
       </c>
       <c r="F30" s="1">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="1">
-        <v>200</v>
-      </c>
-      <c r="H30" s="6" t="s">
+        <v>40000</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="7">
-        <v>2</v>
+        <v>124</v>
+      </c>
+      <c r="B31" s="1">
+        <v>500</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="7">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="F31" s="1">
-        <v>2000</v>
+        <v>120000</v>
       </c>
       <c r="G31" s="1">
-        <v>2000</v>
+        <v>120000</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>169</v>
@@ -6227,10 +6235,10 @@
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32" s="7">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="C32" s="7">
         <v>31</v>
@@ -6239,13 +6247,13 @@
         <v>168</v>
       </c>
       <c r="E32" s="7">
-        <v>80</v>
+        <v>3300</v>
       </c>
       <c r="F32" s="1">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="G32" s="1">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>169</v>
@@ -6253,25 +6261,25 @@
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B33" s="7">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="C33" s="7">
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E33" s="7">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>32000</v>
+        <v>200</v>
       </c>
       <c r="G33" s="1">
-        <v>32000</v>
+        <v>200</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>169</v>
@@ -6279,25 +6287,25 @@
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B34" s="7">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="C34" s="7">
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E34" s="7">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="G34" s="1">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>169</v>
@@ -6305,10 +6313,10 @@
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B35" s="7">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C35" s="7">
         <v>34</v>
@@ -6317,13 +6325,13 @@
         <v>168</v>
       </c>
       <c r="E35" s="7">
-        <v>2400</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1">
-        <v>240000</v>
+        <v>8000</v>
       </c>
       <c r="G35" s="1">
-        <v>240000</v>
+        <v>8000</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>169</v>
@@ -6331,218 +6339,218 @@
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="B36" s="7">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E36" s="7">
-        <v>6600</v>
+        <v>320</v>
       </c>
       <c r="F36" s="1">
-        <v>660000</v>
+        <v>32000</v>
       </c>
       <c r="G36" s="1">
-        <v>660000</v>
+        <v>32000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B37" s="7">
-        <v>0.2</v>
+        <v>150</v>
       </c>
       <c r="C37" s="7">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>44</v>
+      <c r="D37" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="E37" s="7">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="F37" s="1">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="G37" s="1">
-        <v>12000</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>46</v>
+        <v>80000</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="B38" s="7">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="C38" s="7">
         <v>37</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>44</v>
+      <c r="D38" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="E38" s="7">
-        <v>240</v>
+        <v>2400</v>
       </c>
       <c r="F38" s="1">
-        <v>24000</v>
+        <v>240000</v>
       </c>
       <c r="G38" s="1">
-        <v>24000</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>46</v>
+        <v>240000</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B39" s="7">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="C39" s="7">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>44</v>
+      <c r="D39" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="E39" s="7">
-        <v>400</v>
+        <v>6600</v>
       </c>
       <c r="F39" s="1">
-        <v>40000</v>
+        <v>660000</v>
       </c>
       <c r="G39" s="1">
-        <v>40000</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>164</v>
+        <v>660000</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B40" s="7">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="C40" s="7">
         <v>39</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="E40" s="7">
-        <v>250</v>
-      </c>
-      <c r="F40" s="7">
-        <v>25000</v>
-      </c>
-      <c r="G40" s="7">
-        <v>25000</v>
+        <v>120</v>
+      </c>
+      <c r="F40" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>12000</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="B41" s="7">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="C41" s="7">
         <v>40</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>43</v>
+      <c r="D41" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E41" s="7">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="F41" s="1">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="G41" s="1">
-        <v>50000</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>169</v>
+        <v>24000</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="B42" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C42" s="7">
         <v>41</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>43</v>
+      <c r="D42" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E42" s="7">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="F42" s="1">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="1">
-        <v>150000</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>169</v>
+        <v>40000</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B43" s="7">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="C43" s="7">
         <v>42</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>43</v>
+      <c r="D43" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="E43" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F43" s="1">
-        <v>360000</v>
-      </c>
-      <c r="G43" s="1">
-        <v>360000</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>169</v>
+        <v>250</v>
+      </c>
+      <c r="F43" s="7">
+        <v>25000</v>
+      </c>
+      <c r="G43" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="B44" s="7">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="C44" s="7">
         <v>43</v>
@@ -6551,13 +6559,13 @@
         <v>43</v>
       </c>
       <c r="E44" s="7">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="F44" s="1">
-        <v>800000</v>
+        <v>50000</v>
       </c>
       <c r="G44" s="1">
-        <v>800000</v>
+        <v>50000</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>169</v>
@@ -6565,99 +6573,81 @@
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="B45" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C45" s="7">
         <v>44</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>164</v>
+      <c r="D45" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E45" s="7">
-        <v>10</v>
-      </c>
-      <c r="F45" s="7">
-        <v>1000</v>
-      </c>
-      <c r="G45" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>164</v>
+        <v>1500</v>
+      </c>
+      <c r="F45" s="1">
+        <v>150000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="B46" s="7">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C46" s="7">
         <v>45</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>164</v>
+      <c r="D46" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E46" s="7">
-        <v>100</v>
-      </c>
-      <c r="F46" s="7">
-        <v>10000</v>
-      </c>
-      <c r="G46" s="7">
-        <v>10000</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>164</v>
+        <v>3600</v>
+      </c>
+      <c r="F46" s="1">
+        <v>360000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>360000</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B47" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C47" s="7">
         <v>46</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>164</v>
+      <c r="D47" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E47" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F47" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G47" s="7">
-        <v>100000</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20" customHeight="1">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="50" spans="2:3" ht="20" customHeight="1">
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="2:3" ht="20" customHeight="1">
-      <c r="C51" s="2"/>
-    </row>
-    <row r="53" spans="2:3" ht="20" customHeight="1">
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="2:3" ht="20" customHeight="1">
-      <c r="C54" s="2"/>
-    </row>
-    <row r="56" spans="2:3" ht="20" customHeight="1">
-      <c r="B56" s="7"/>
+        <v>8000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>800000</v>
+      </c>
+      <c r="G47" s="1">
+        <v>800000</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="0" windowWidth="35640" windowHeight="19860" tabRatio="381" activeTab="2"/>
+    <workbookView xWindow="7780" yWindow="0" windowWidth="27680" windowHeight="19860" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3389,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="7">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C26" s="1">
         <v>26</v>
@@ -3415,7 +3415,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="7">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="C27" s="2">
         <v>27</v>
@@ -3441,7 +3441,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="7">
-        <v>25000</v>
+        <v>200000</v>
       </c>
       <c r="C28" s="1">
         <v>28</v>
@@ -5414,7 +5414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="37660" windowHeight="20220" tabRatio="381"/>
+    <workbookView xWindow="1760" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="230">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -778,6 +778,38 @@
   </si>
   <si>
     <t>sweepScroll</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:1:9,technologyMaterials:trainingFigure:10:8,technologyMaterials:bowTarget:10:8,technologyMaterials:saddle:10:8,technologyMaterials:ironPart:10:8,items:warSpeedupClass_1:1:9,dragonMaterials:runes_1:1:5,dragonMaterials:redCrystal_1:1:8,dragonMaterials:blueCrystal_1:1:8,dragonMaterials:greenCrystal_1:1:8,dragonMaterials:ingo_1:1:5,dragonMaterials:runes_2:1:2,dragonMaterials:redCrystal_2:1:4,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:ingo_2:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:5:9,technologyMaterials:trainingFigure:20:8,technologyMaterials:bowTarget:20:8,technologyMaterials:saddle:20:8,technologyMaterials:ironPart:20:8,items:warSpeedupClass_1:3:9,dragonMaterials:runes_2:1:5,dragonMaterials:redCrystal_2:1:8,dragonMaterials:blueCrystal_2:1:8,dragonMaterials:greenCrystal_2:1:8,dragonMaterials:ingo_2:1:5,dragonMaterials:runes_3:1:2,dragonMaterials:redCrystal_3:1:4,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:ingo_3:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1:9,technologyMaterials:trainingFigure:30:8,technologyMaterials:bowTarget:30:8,technologyMaterials:saddle:30:8,technologyMaterials:ironPart:30:8,items:warSpeedupClass_2:2:9,dragonMaterials:runes_3:1:5,dragonMaterials:redCrystal_3:1:8,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:ingo_3:1:5,dragonMaterials:runes_4:1:2,dragonMaterials:redCrystal_4:1:4,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:ingo_4:1:2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -949,7 +981,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="732">
+  <cellStyleXfs count="764">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1686,8 +1718,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1731,8 +1795,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="732">
+  <cellStyles count="764">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2101,6 +2168,22 @@
     <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2462,6 +2545,22 @@
     <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2911,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3993,6 +4092,87 @@
       <c r="H41" s="14" t="s">
         <v>221</v>
       </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="1">
+        <v>150</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7500</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="1">
+        <v>360</v>
+      </c>
+      <c r="F43" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18000</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="1">
+        <v>750</v>
+      </c>
+      <c r="F44" s="1">
+        <v>37500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>37500</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" customHeight="1">
+      <c r="B45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5634,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
+    <workbookView xWindow="1280" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -3012,14 +3012,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="131.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="147.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1"/>
     <col min="4" max="4" width="20.6640625" style="5"/>
     <col min="5" max="7" width="20.6640625" style="1"/>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C32" s="1">
         <v>32</v>
@@ -3864,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C33" s="2">
         <v>33</v>
@@ -3890,7 +3890,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="7">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="C34" s="1">
         <v>34</v>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
+    <workbookView xWindow="600" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -3012,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="7">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="C32" s="1">
         <v>32</v>
@@ -3847,7 +3847,7 @@
         <v>166</v>
       </c>
       <c r="E32" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="1">
         <v>25000</v>
@@ -3864,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="7">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="C33" s="2">
         <v>33</v>
@@ -3873,7 +3873,7 @@
         <v>166</v>
       </c>
       <c r="E33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F33" s="1">
         <v>200000</v>
@@ -3890,7 +3890,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="7">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="C34" s="1">
         <v>34</v>
@@ -3899,7 +3899,7 @@
         <v>166</v>
       </c>
       <c r="E34" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="F34" s="1">
         <v>600000</v>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
+    <workbookView xWindow="920" yWindow="360" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -3012,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="7">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="C32" s="1">
         <v>32</v>
@@ -3864,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="7">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="C33" s="2">
         <v>33</v>
@@ -3890,7 +3890,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="7">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="C34" s="1">
         <v>34</v>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="360" windowWidth="35720" windowHeight="17700" tabRatio="381"/>
+    <workbookView xWindow="820" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="234">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -199,621 +199,639 @@
     <t>masterOfDefender_1</t>
   </si>
   <si>
+    <t>quarterMaster_1</t>
+  </si>
+  <si>
+    <t>quarterMaster_2</t>
+  </si>
+  <si>
+    <t>quarterMaster_3</t>
+  </si>
+  <si>
+    <t>fogOfTrick_1</t>
+  </si>
+  <si>
+    <t>fogOfTrick_2</t>
+  </si>
+  <si>
+    <t>fogOfTrick_3</t>
+  </si>
+  <si>
+    <t>woodBonus_1</t>
+  </si>
+  <si>
+    <t>woodBonus_2</t>
+  </si>
+  <si>
+    <t>woodBonus_3</t>
+  </si>
+  <si>
+    <t>stoneBonus_1</t>
+  </si>
+  <si>
+    <t>stoneBonus_2</t>
+  </si>
+  <si>
+    <t>stoneBonus_3</t>
+  </si>
+  <si>
+    <t>ironBonus_1</t>
+  </si>
+  <si>
+    <t>ironBonus_2</t>
+  </si>
+  <si>
+    <t>ironBonus_3</t>
+  </si>
+  <si>
+    <t>foodBonus_1</t>
+  </si>
+  <si>
+    <t>foodBonus_2</t>
+  </si>
+  <si>
+    <t>foodBonus_3</t>
+  </si>
+  <si>
+    <t>citizenBonus_1</t>
+  </si>
+  <si>
+    <t>citizenBonus_2</t>
+  </si>
+  <si>
+    <t>citizenBonus_3</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_1</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonExpBonus_3</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_1</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_2</t>
+  </si>
+  <si>
+    <t>troopSizeBonus_3</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_1</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_2</t>
+  </si>
+  <si>
+    <t>dragonHpBonus_3</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_1</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_2</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus_3</t>
+  </si>
+  <si>
+    <t>unitHpBonus_1</t>
+  </si>
+  <si>
+    <t>unitHpBonus_2</t>
+  </si>
+  <si>
+    <t>unitHpBonus_3</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_1</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_2</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus_3</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_1</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_2</t>
+  </si>
+  <si>
+    <t>archerAtkBonus_3</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_1</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_2</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus_3</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_1</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_2</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus_3</t>
+  </si>
+  <si>
+    <t>woodClass_1</t>
+  </si>
+  <si>
+    <t>woodClass_2</t>
+  </si>
+  <si>
+    <t>woodClass_3</t>
+  </si>
+  <si>
+    <t>woodClass_4</t>
+  </si>
+  <si>
+    <t>woodClass_5</t>
+  </si>
+  <si>
+    <t>woodClass_6</t>
+  </si>
+  <si>
+    <t>woodClass_7</t>
+  </si>
+  <si>
+    <t>stoneClass_1</t>
+  </si>
+  <si>
+    <t>stoneClass_2</t>
+  </si>
+  <si>
+    <t>stoneClass_3</t>
+  </si>
+  <si>
+    <t>stoneClass_4</t>
+  </si>
+  <si>
+    <t>stoneClass_5</t>
+  </si>
+  <si>
+    <t>stoneClass_6</t>
+  </si>
+  <si>
+    <t>stoneClass_7</t>
+  </si>
+  <si>
+    <t>ironClass_1</t>
+  </si>
+  <si>
+    <t>ironClass_2</t>
+  </si>
+  <si>
+    <t>ironClass_3</t>
+  </si>
+  <si>
+    <t>ironClass_4</t>
+  </si>
+  <si>
+    <t>ironClass_5</t>
+  </si>
+  <si>
+    <t>ironClass_6</t>
+  </si>
+  <si>
+    <t>ironClass_7</t>
+  </si>
+  <si>
+    <t>foodClass_1</t>
+  </si>
+  <si>
+    <t>foodClass_2</t>
+  </si>
+  <si>
+    <t>foodClass_3</t>
+  </si>
+  <si>
+    <t>foodClass_4</t>
+  </si>
+  <si>
+    <t>foodClass_5</t>
+  </si>
+  <si>
+    <t>foodClass_6</t>
+  </si>
+  <si>
+    <t>foodClass_7</t>
+  </si>
+  <si>
+    <t>coinClass_1</t>
+  </si>
+  <si>
+    <t>coinClass_2</t>
+  </si>
+  <si>
+    <t>coinClass_3</t>
+  </si>
+  <si>
+    <t>coinClass_4</t>
+  </si>
+  <si>
+    <t>coinClass_5</t>
+  </si>
+  <si>
+    <t>coinClass_6</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_2</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_3</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_4</t>
+  </si>
+  <si>
+    <t>speedup_4</t>
+  </si>
+  <si>
+    <t>speedup_5</t>
+  </si>
+  <si>
+    <t>speedup_6</t>
+  </si>
+  <si>
+    <t>speedup_7</t>
+  </si>
+  <si>
+    <t>speedup_8</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_1</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_2</t>
+  </si>
+  <si>
+    <t>masterOfDefender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fogOfTrick</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_isAdvancedItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buyPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_isSell</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_price</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_sellPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>movingConstruction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBonus_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarterMaster</t>
+  </si>
+  <si>
+    <t>woodBonus</t>
+  </si>
+  <si>
+    <t>stoneBonus</t>
+  </si>
+  <si>
+    <t>ironBonus</t>
+  </si>
+  <si>
+    <t>foodBonus</t>
+  </si>
+  <si>
+    <t>coinBonus</t>
+  </si>
+  <si>
+    <t>citizenBonus</t>
+  </si>
+  <si>
+    <t>dragonExpBonus</t>
+  </si>
+  <si>
+    <t>troopSizeBonus</t>
+  </si>
+  <si>
+    <t>dragonHpBonus</t>
+  </si>
+  <si>
+    <t>marchSpeedBonus</t>
+  </si>
+  <si>
+    <t>unitHpBonus</t>
+  </si>
+  <si>
+    <t>infantryAtkBonus</t>
+  </si>
+  <si>
+    <t>archerAtkBonus</t>
+  </si>
+  <si>
+    <t>cavalryAtkBonus</t>
+  </si>
+  <si>
+    <t>siegeAtkBonus</t>
+  </si>
+  <si>
+    <t>gemClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:5:16,resource:stoneClass_3:5:16,resource:ironClass_3:5:16,resource:foodClass_3:5:16,resource:coinClass_3:2:10,speedup:speedup_2:10:16,speedup:speedup_3:5:5,resource:casinoTokenClass_1:1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_3:15:10,resource:stoneClass_3:15:10,resource:ironClass_3:15:10,resource:foodClass_3:15:10,resource:coinClass_3:5:19,resource:casinoTokenClass_2:1:20,speedup:speedup_3:10:20,speedup:speedup_4:5:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_4:5:15,resource:stoneClass_4:5:15,resource:ironClass_4:5:15,resource:foodClass_4:5:15,resource:coinClass_4:5:15,resource:casinoTokenClass_3:1:10,speedup:speedup_4:10:10,speedup:speedup_5:5:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:woodClass_5:5:15,resource:stoneClass_5:5:15,resource:ironClass_5:5:15,resource:foodClass_5:5:15,resource:coinClass_5:5:15,resource:casinoTokenClass_4:1:10,speedup:speedup_5:10:10,speedup:speedup_6:5:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:redCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:greenCrystal_2:6,16|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:blueCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:redSoul_2:6,dragonMaterials:redCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:greenSoul_2:6,dragonMaterials:greenCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:blueSoul_2:6,dragonMaterials:blueCrystal_2:6,14|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:blueCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:redSoul_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:greenSoul_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:blueSoul_3:2,dragonMaterials:blueCrystal_3:2,2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:redCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:greenCrystal_3:6,13|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:blueCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:redSoul_3:6,dragonMaterials:redCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:greenSoul_3:6,dragonMaterials:greenCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:blueSoul_3:6,dragonMaterials:blueCrystal_3:6,11|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:blueCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:redSoul_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:greenSoul_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:blueSoul_4:2,dragonMaterials:blueCrystal_4:2,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:greenCrystal_1:6,28|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6,27|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:blueCrystal_1:6,27|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:blueCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:redSoul_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:greenSoul_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:blueSoul_2:2,dragonMaterials:blueCrystal_2:2,3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweepScroll</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbag_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:1:9,technologyMaterials:trainingFigure:10:8,technologyMaterials:bowTarget:10:8,technologyMaterials:saddle:10:8,technologyMaterials:ironPart:10:8,items:warSpeedupClass_1:1:9,dragonMaterials:runes_1:1:5,dragonMaterials:redCrystal_1:1:8,dragonMaterials:blueCrystal_1:1:8,dragonMaterials:greenCrystal_1:1:8,dragonMaterials:ingo_1:1:5,dragonMaterials:runes_2:1:2,dragonMaterials:redCrystal_2:1:4,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:ingo_2:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:5:9,technologyMaterials:trainingFigure:20:8,technologyMaterials:bowTarget:20:8,technologyMaterials:saddle:20:8,technologyMaterials:ironPart:20:8,items:warSpeedupClass_1:3:9,dragonMaterials:runes_2:1:5,dragonMaterials:redCrystal_2:1:8,dragonMaterials:blueCrystal_2:1:8,dragonMaterials:greenCrystal_2:1:8,dragonMaterials:ingo_2:1:5,dragonMaterials:runes_3:1:2,dragonMaterials:redCrystal_3:1:4,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:ingo_3:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1:9,technologyMaterials:trainingFigure:30:8,technologyMaterials:bowTarget:30:8,technologyMaterials:saddle:30:8,technologyMaterials:ironPart:30:8,items:warSpeedupClass_2:2:9,dragonMaterials:runes_3:1:5,dragonMaterials:redCrystal_3:1:8,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:ingo_3:1:5,dragonMaterials:runes_4:1:2,dragonMaterials:redCrystal_4:1:4,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:ingo_4:1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>newbeeProtect_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>newbeeProtect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>masterOfDefender_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>masterOfDefender_3</t>
-  </si>
-  <si>
-    <t>quarterMaster_1</t>
-  </si>
-  <si>
-    <t>quarterMaster_2</t>
-  </si>
-  <si>
-    <t>quarterMaster_3</t>
-  </si>
-  <si>
-    <t>fogOfTrick_1</t>
-  </si>
-  <si>
-    <t>fogOfTrick_2</t>
-  </si>
-  <si>
-    <t>fogOfTrick_3</t>
-  </si>
-  <si>
-    <t>woodBonus_1</t>
-  </si>
-  <si>
-    <t>woodBonus_2</t>
-  </si>
-  <si>
-    <t>woodBonus_3</t>
-  </si>
-  <si>
-    <t>stoneBonus_1</t>
-  </si>
-  <si>
-    <t>stoneBonus_2</t>
-  </si>
-  <si>
-    <t>stoneBonus_3</t>
-  </si>
-  <si>
-    <t>ironBonus_1</t>
-  </si>
-  <si>
-    <t>ironBonus_2</t>
-  </si>
-  <si>
-    <t>ironBonus_3</t>
-  </si>
-  <si>
-    <t>foodBonus_1</t>
-  </si>
-  <si>
-    <t>foodBonus_2</t>
-  </si>
-  <si>
-    <t>foodBonus_3</t>
-  </si>
-  <si>
-    <t>citizenBonus_1</t>
-  </si>
-  <si>
-    <t>citizenBonus_2</t>
-  </si>
-  <si>
-    <t>citizenBonus_3</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_1</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonExpBonus_3</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_1</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_2</t>
-  </si>
-  <si>
-    <t>troopSizeBonus_3</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_1</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_2</t>
-  </si>
-  <si>
-    <t>dragonHpBonus_3</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_1</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_2</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus_3</t>
-  </si>
-  <si>
-    <t>unitHpBonus_1</t>
-  </si>
-  <si>
-    <t>unitHpBonus_2</t>
-  </si>
-  <si>
-    <t>unitHpBonus_3</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_1</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_2</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus_3</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_1</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_2</t>
-  </si>
-  <si>
-    <t>archerAtkBonus_3</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_1</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_2</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus_3</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_1</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_2</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus_3</t>
-  </si>
-  <si>
-    <t>woodClass_1</t>
-  </si>
-  <si>
-    <t>woodClass_2</t>
-  </si>
-  <si>
-    <t>woodClass_3</t>
-  </si>
-  <si>
-    <t>woodClass_4</t>
-  </si>
-  <si>
-    <t>woodClass_5</t>
-  </si>
-  <si>
-    <t>woodClass_6</t>
-  </si>
-  <si>
-    <t>woodClass_7</t>
-  </si>
-  <si>
-    <t>stoneClass_1</t>
-  </si>
-  <si>
-    <t>stoneClass_2</t>
-  </si>
-  <si>
-    <t>stoneClass_3</t>
-  </si>
-  <si>
-    <t>stoneClass_4</t>
-  </si>
-  <si>
-    <t>stoneClass_5</t>
-  </si>
-  <si>
-    <t>stoneClass_6</t>
-  </si>
-  <si>
-    <t>stoneClass_7</t>
-  </si>
-  <si>
-    <t>ironClass_1</t>
-  </si>
-  <si>
-    <t>ironClass_2</t>
-  </si>
-  <si>
-    <t>ironClass_3</t>
-  </si>
-  <si>
-    <t>ironClass_4</t>
-  </si>
-  <si>
-    <t>ironClass_5</t>
-  </si>
-  <si>
-    <t>ironClass_6</t>
-  </si>
-  <si>
-    <t>ironClass_7</t>
-  </si>
-  <si>
-    <t>foodClass_1</t>
-  </si>
-  <si>
-    <t>foodClass_2</t>
-  </si>
-  <si>
-    <t>foodClass_3</t>
-  </si>
-  <si>
-    <t>foodClass_4</t>
-  </si>
-  <si>
-    <t>foodClass_5</t>
-  </si>
-  <si>
-    <t>foodClass_6</t>
-  </si>
-  <si>
-    <t>foodClass_7</t>
-  </si>
-  <si>
-    <t>coinClass_1</t>
-  </si>
-  <si>
-    <t>coinClass_2</t>
-  </si>
-  <si>
-    <t>coinClass_3</t>
-  </si>
-  <si>
-    <t>coinClass_4</t>
-  </si>
-  <si>
-    <t>coinClass_5</t>
-  </si>
-  <si>
-    <t>coinClass_6</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_2</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_3</t>
-  </si>
-  <si>
-    <t>casinoTokenClass_4</t>
-  </si>
-  <si>
-    <t>speedup_4</t>
-  </si>
-  <si>
-    <t>speedup_5</t>
-  </si>
-  <si>
-    <t>speedup_6</t>
-  </si>
-  <si>
-    <t>speedup_7</t>
-  </si>
-  <si>
-    <t>speedup_8</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_1</t>
-  </si>
-  <si>
-    <t>warSpeedupClass_2</t>
-  </si>
-  <si>
-    <t>masterOfDefender</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quarterMaster</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fogOfTrick</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_isAdvancedItem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_buyPriceInAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_isSell</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_price</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_sellPriceInAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterOfDefender_4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>movingConstruction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinBonus_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinClass_7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>quarterMaster</t>
-  </si>
-  <si>
-    <t>woodBonus</t>
-  </si>
-  <si>
-    <t>stoneBonus</t>
-  </si>
-  <si>
-    <t>ironBonus</t>
-  </si>
-  <si>
-    <t>foodBonus</t>
-  </si>
-  <si>
-    <t>coinBonus</t>
-  </si>
-  <si>
-    <t>citizenBonus</t>
-  </si>
-  <si>
-    <t>dragonExpBonus</t>
-  </si>
-  <si>
-    <t>troopSizeBonus</t>
-  </si>
-  <si>
-    <t>dragonHpBonus</t>
-  </si>
-  <si>
-    <t>marchSpeedBonus</t>
-  </si>
-  <si>
-    <t>unitHpBonus</t>
-  </si>
-  <si>
-    <t>infantryAtkBonus</t>
-  </si>
-  <si>
-    <t>archerAtkBonus</t>
-  </si>
-  <si>
-    <t>cavalryAtkBonus</t>
-  </si>
-  <si>
-    <t>siegeAtkBonus</t>
-  </si>
-  <si>
-    <t>gemClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:5:16,resource:stoneClass_3:5:16,resource:ironClass_3:5:16,resource:foodClass_3:5:16,resource:coinClass_3:2:10,speedup:speedup_2:10:16,speedup:speedup_3:5:5,resource:casinoTokenClass_1:1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:15:10,resource:stoneClass_3:15:10,resource:ironClass_3:15:10,resource:foodClass_3:15:10,resource:coinClass_3:5:19,resource:casinoTokenClass_2:1:20,speedup:speedup_3:10:20,speedup:speedup_4:5:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:5:15,resource:stoneClass_4:5:15,resource:ironClass_4:5:15,resource:foodClass_4:5:15,resource:coinClass_4:5:15,resource:casinoTokenClass_3:1:10,speedup:speedup_4:10:10,speedup:speedup_5:5:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_5:5:15,resource:stoneClass_5:5:15,resource:ironClass_5:5:15,resource:foodClass_5:5:15,resource:coinClass_5:5:15,resource:casinoTokenClass_4:1:10,speedup:speedup_5:10:10,speedup:speedup_6:5:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:redCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:greenCrystal_2:6,16|dragonMaterials:ingo_2:6,dragonMaterials:runes_2:6,dragonMaterials:blueCrystal_2:6,15|dragonMaterials:ingo_2:6,dragonMaterials:redSoul_2:6,dragonMaterials:redCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:greenSoul_2:6,dragonMaterials:greenCrystal_2:6,14|dragonMaterials:ingo_2:6,dragonMaterials:blueSoul_2:6,dragonMaterials:blueCrystal_2:6,14|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:runes_3:2,dragonMaterials:blueCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:redSoul_3:2,dragonMaterials:redCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:greenSoul_3:2,dragonMaterials:greenCrystal_3:2,2|dragonMaterials:ingo_3:2,dragonMaterials:blueSoul_3:2,dragonMaterials:blueCrystal_3:2,2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:redCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:greenCrystal_3:6,13|dragonMaterials:ingo_3:6,dragonMaterials:runes_3:6,dragonMaterials:blueCrystal_3:6,12|dragonMaterials:ingo_3:6,dragonMaterials:redSoul_3:6,dragonMaterials:redCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:greenSoul_3:6,dragonMaterials:greenCrystal_3:6,11|dragonMaterials:ingo_3:6,dragonMaterials:blueSoul_3:6,dragonMaterials:blueCrystal_3:6,11|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:runes_4:2,dragonMaterials:blueCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:redSoul_4:2,dragonMaterials:redCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:greenSoul_4:2,dragonMaterials:greenCrystal_4:2,5|dragonMaterials:ingo_4:2,dragonMaterials:blueSoul_4:2,dragonMaterials:blueCrystal_4:2,5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:greenCrystal_1:6,28|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6,27|dragonMaterials:ingo_1:6,dragonMaterials:runes_1:6,dragonMaterials:blueCrystal_1:6,27|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:runes_2:2,dragonMaterials:blueCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:redSoul_2:2,dragonMaterials:redCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:greenSoul_2:2,dragonMaterials:greenCrystal_2:2,3|dragonMaterials:ingo_2:2,dragonMaterials:blueSoul_2:2,dragonMaterials:blueCrystal_2:2,3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sweepScroll</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redbag_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redbag_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redbag_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_1:1:9,technologyMaterials:trainingFigure:10:8,technologyMaterials:bowTarget:10:8,technologyMaterials:saddle:10:8,technologyMaterials:ironPart:10:8,items:warSpeedupClass_1:1:9,dragonMaterials:runes_1:1:5,dragonMaterials:redCrystal_1:1:8,dragonMaterials:blueCrystal_1:1:8,dragonMaterials:greenCrystal_1:1:8,dragonMaterials:ingo_1:1:5,dragonMaterials:runes_2:1:2,dragonMaterials:redCrystal_2:1:4,dragonMaterials:blueCrystal_2:1:4,dragonMaterials:greenCrystal_2:1:4,dragonMaterials:ingo_2:1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_1:5:9,technologyMaterials:trainingFigure:20:8,technologyMaterials:bowTarget:20:8,technologyMaterials:saddle:20:8,technologyMaterials:ironPart:20:8,items:warSpeedupClass_1:3:9,dragonMaterials:runes_2:1:5,dragonMaterials:redCrystal_2:1:8,dragonMaterials:blueCrystal_2:1:8,dragonMaterials:greenCrystal_2:1:8,dragonMaterials:ingo_2:1:5,dragonMaterials:runes_3:1:2,dragonMaterials:redCrystal_3:1:4,dragonMaterials:blueCrystal_3:1:4,dragonMaterials:greenCrystal_3:1:4,dragonMaterials:ingo_3:1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:gemClass_2:1:9,technologyMaterials:trainingFigure:30:8,technologyMaterials:bowTarget:30:8,technologyMaterials:saddle:30:8,technologyMaterials:ironPart:30:8,items:warSpeedupClass_2:2:9,dragonMaterials:runes_3:1:5,dragonMaterials:redCrystal_3:1:8,dragonMaterials:blueCrystal_3:1:8,dragonMaterials:greenCrystal_3:1:8,dragonMaterials:ingo_3:1:5,dragonMaterials:runes_4:1:2,dragonMaterials:redCrystal_4:1:4,dragonMaterials:blueCrystal_4:1:4,dragonMaterials:greenCrystal_4:1:4,dragonMaterials:ingo_4:1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -981,7 +999,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="764">
+  <cellStyleXfs count="788">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -996,6 +1014,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1799,7 +1841,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="764">
+  <cellStyles count="788">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2184,6 +2226,18 @@
     <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="786" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2561,6 +2615,18 @@
     <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3012,7 +3078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3038,19 +3104,19 @@
         <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
@@ -3058,7 +3124,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3084,13 +3150,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1">
         <v>1500</v>
@@ -3102,7 +3168,7 @@
         <v>75000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3110,13 +3176,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1">
         <v>5000</v>
@@ -3128,7 +3194,7 @@
         <v>250000</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3136,7 +3202,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3162,13 +3228,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1">
         <v>500</v>
@@ -3180,7 +3246,7 @@
         <v>25000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3188,7 +3254,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -3214,7 +3280,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -3549,7 +3615,7 @@
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>42</v>
@@ -3578,13 +3644,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -3596,7 +3662,7 @@
         <v>2500</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -3604,13 +3670,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1">
         <v>200</v>
@@ -3622,7 +3688,7 @@
         <v>10000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -3630,13 +3696,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1">
         <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
@@ -3648,7 +3714,7 @@
         <v>5000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -3656,13 +3722,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2">
         <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1">
         <v>600</v>
@@ -3674,7 +3740,7 @@
         <v>30000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -3688,7 +3754,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E26" s="1">
         <v>500</v>
@@ -3700,7 +3766,7 @@
         <v>25000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -3714,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1">
         <v>4000</v>
@@ -3726,7 +3792,7 @@
         <v>200000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -3740,7 +3806,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1">
         <v>12000</v>
@@ -3752,7 +3818,7 @@
         <v>600000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -3766,7 +3832,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1">
         <v>60</v>
@@ -3778,7 +3844,7 @@
         <v>3000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -3792,7 +3858,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" s="1">
         <v>440</v>
@@ -3804,7 +3870,7 @@
         <v>22000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -3818,7 +3884,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E31" s="1">
         <v>1400</v>
@@ -3830,7 +3896,7 @@
         <v>70000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -3844,7 +3910,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E32" s="1">
         <v>1000</v>
@@ -3856,7 +3922,7 @@
         <v>25000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -3870,7 +3936,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1">
         <v>8000</v>
@@ -3882,7 +3948,7 @@
         <v>200000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -3896,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1">
         <v>24000</v>
@@ -3908,12 +3974,12 @@
         <v>600000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" s="7">
         <v>20</v>
@@ -3922,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35" s="1">
         <v>450</v>
@@ -3934,7 +4000,7 @@
         <v>22500</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -3948,7 +4014,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E36" s="1">
         <v>900</v>
@@ -3960,7 +4026,7 @@
         <v>45000</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -3974,7 +4040,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37" s="1">
         <v>1500</v>
@@ -3986,7 +4052,7 @@
         <v>75000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -4000,7 +4066,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" s="1">
         <v>100</v>
@@ -4012,7 +4078,7 @@
         <v>5000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -4026,7 +4092,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E39" s="1">
         <v>600</v>
@@ -4038,7 +4104,7 @@
         <v>30000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -4052,7 +4118,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40" s="1">
         <v>2000</v>
@@ -4064,15 +4130,15 @@
         <v>100000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="12">
         <v>41</v>
@@ -4090,21 +4156,21 @@
         <v>250</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C42" s="1">
         <v>42</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E42" s="1">
         <v>150</v>
@@ -4116,21 +4182,21 @@
         <v>7500</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C43" s="2">
         <v>43</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E43" s="1">
         <v>360</v>
@@ -4142,21 +4208,21 @@
         <v>18000</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C44" s="1">
         <v>44</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E44" s="1">
         <v>750</v>
@@ -4168,7 +4234,7 @@
         <v>37500</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -4188,10 +4254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4208,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>39</v>
@@ -4223,24 +4289,24 @@
         <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4262,29 +4328,29 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
+      <c r="A3" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="1">
+        <v>140</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G3" s="1">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>44</v>
@@ -4292,28 +4358,28 @@
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="1">
+        <v>140</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>44</v>
+      <c r="E4" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="F4" s="1">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G4" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>44</v>
@@ -4321,28 +4387,28 @@
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="2">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G5" s="1">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="H5" s="1">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>44</v>
@@ -4350,28 +4416,28 @@
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="B6" s="1">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="1">
+        <v>72</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="1">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="1">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>44</v>
@@ -4379,28 +4445,28 @@
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="1">
+        <v>142</v>
+      </c>
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G7" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H7" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>44</v>
@@ -4408,28 +4474,28 @@
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="7">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H8" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>44</v>
@@ -4437,28 +4503,28 @@
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H9" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
@@ -4466,28 +4532,28 @@
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="1">
+        <v>143</v>
+      </c>
+      <c r="D10" s="2">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G10" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H10" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>44</v>
@@ -4495,28 +4561,28 @@
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="7">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="B11" s="1">
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>44</v>
@@ -4524,28 +4590,28 @@
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="1">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="7">
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="1">
+        <v>143</v>
+      </c>
+      <c r="D12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H12" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>44</v>
@@ -4553,28 +4619,28 @@
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F13" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G13" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H13" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>44</v>
@@ -4582,28 +4648,28 @@
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="7">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>147</v>
+        <v>55</v>
+      </c>
+      <c r="B14" s="1">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H14" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>44</v>
@@ -4611,28 +4677,28 @@
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="1">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="1">
+        <v>56</v>
+      </c>
+      <c r="B15" s="7">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H15" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>44</v>
@@ -4640,28 +4706,28 @@
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="1">
+        <v>145</v>
+      </c>
+      <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F16" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G16" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H16" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>44</v>
@@ -4669,28 +4735,28 @@
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="7">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="2">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="1">
         <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H17" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>44</v>
@@ -4698,28 +4764,28 @@
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="1">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="1">
+        <v>59</v>
+      </c>
+      <c r="B18" s="7">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="2">
         <v>17</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>43</v>
+      <c r="E18" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H18" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>44</v>
@@ -4727,28 +4793,28 @@
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="1">
+        <v>146</v>
+      </c>
+      <c r="D19" s="2">
         <v>18</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>43</v>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G19" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H19" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>44</v>
@@ -4756,28 +4822,28 @@
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="7">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="1">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>45</v>
+      <c r="E20" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F20" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H20" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>44</v>
@@ -4785,13 +4851,13 @@
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>149</v>
+        <v>62</v>
+      </c>
+      <c r="B21" s="7">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -4800,13 +4866,13 @@
         <v>43</v>
       </c>
       <c r="F21" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H21" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>44</v>
@@ -4814,28 +4880,28 @@
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="1">
+        <v>147</v>
+      </c>
+      <c r="D22" s="2">
         <v>21</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>43</v>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F22" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G22" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H22" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>44</v>
@@ -4843,57 +4909,57 @@
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="7">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>172</v>
+        <v>64</v>
+      </c>
+      <c r="B23" s="1">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>45</v>
+      <c r="E23" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F23" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H23" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="1">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="A24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="7">
+        <v>72</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="2">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="H24" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>44</v>
@@ -4901,57 +4967,57 @@
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B25" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>43</v>
+      <c r="E25" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F25" s="1">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G25" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H25" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="7">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>150</v>
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
+      <c r="E26" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F26" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G26" s="1">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="H26" s="1">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>44</v>
@@ -4959,28 +5025,28 @@
     </row>
     <row r="27" spans="1:9" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="1">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="1">
+        <v>172</v>
+      </c>
+      <c r="B27" s="7">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="2">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="1">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G27" s="1">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="H27" s="1">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>44</v>
@@ -4988,28 +5054,28 @@
     </row>
     <row r="28" spans="1:9" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B28" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="1">
+        <v>148</v>
+      </c>
+      <c r="D28" s="2">
         <v>27</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>43</v>
+      <c r="E28" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F28" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G28" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H28" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>44</v>
@@ -5017,28 +5083,28 @@
     </row>
     <row r="29" spans="1:9" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="2">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1">
         <v>28</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>45</v>
+      <c r="E29" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F29" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G29" s="1">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="H29" s="1">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>44</v>
@@ -5046,28 +5112,28 @@
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="7">
         <v>72</v>
       </c>
-      <c r="B30" s="1">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="2">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="1">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G30" s="1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="H30" s="1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>44</v>
@@ -5075,28 +5141,28 @@
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="7">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="1">
+        <v>149</v>
+      </c>
+      <c r="D31" s="2">
         <v>30</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>43</v>
+      <c r="E31" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F31" s="1">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G31" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="H31" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>44</v>
@@ -5104,28 +5170,28 @@
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1">
-        <v>8</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>175</v>
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D32" s="2">
         <v>31</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>45</v>
+      <c r="E32" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F32" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G32" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="H32" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>44</v>
@@ -5133,13 +5199,13 @@
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="1">
-        <v>24</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>175</v>
+        <v>71</v>
+      </c>
+      <c r="B33" s="7">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D33" s="1">
         <v>32</v>
@@ -5148,13 +5214,13 @@
         <v>43</v>
       </c>
       <c r="F33" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="G33" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="H33" s="1">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>44</v>
@@ -5162,28 +5228,28 @@
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="7">
         <v>72</v>
       </c>
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
       <c r="C34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="1">
+        <v>173</v>
+      </c>
+      <c r="D34" s="2">
         <v>33</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>43</v>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F34" s="1">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G34" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="H34" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>44</v>
@@ -5191,28 +5257,28 @@
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>176</v>
+        <v>24</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="D35" s="2">
         <v>34</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>45</v>
+      <c r="E35" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F35" s="1">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G35" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="H35" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>44</v>
@@ -5220,28 +5286,28 @@
     </row>
     <row r="36" spans="1:9" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="1">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="1">
+        <v>74</v>
+      </c>
+      <c r="B36" s="7">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="2">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="1">
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="G36" s="1">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="H36" s="1">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>44</v>
@@ -5249,28 +5315,28 @@
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="7">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="1">
         <v>36</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>43</v>
+      <c r="E37" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F37" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G37" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H37" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>44</v>
@@ -5278,28 +5344,28 @@
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1">
-        <v>8</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>152</v>
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D38" s="2">
         <v>37</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>45</v>
+      <c r="E38" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F38" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G38" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H38" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>44</v>
@@ -5307,28 +5373,28 @@
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="1">
-        <v>24</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="1">
+        <v>77</v>
+      </c>
+      <c r="B39" s="7">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="2">
         <v>38</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G39" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="H39" s="1">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>44</v>
@@ -5336,28 +5402,28 @@
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="7">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="1">
+        <v>150</v>
+      </c>
+      <c r="D40" s="2">
         <v>39</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>43</v>
+      <c r="E40" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F40" s="1">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G40" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="H40" s="1">
-        <v>120000</v>
+        <v>30000</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>44</v>
@@ -5365,57 +5431,57 @@
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="2">
+        <v>150</v>
+      </c>
+      <c r="D41" s="1">
         <v>40</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>45</v>
+      <c r="E41" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F41" s="1">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G41" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="H41" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="1">
-        <v>24</v>
+      <c r="A42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="7">
+        <v>72</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="1">
+        <v>150</v>
+      </c>
+      <c r="D42" s="2">
         <v>41</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="G42" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="H42" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>44</v>
@@ -5423,28 +5489,28 @@
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="7">
-        <v>72</v>
+        <v>81</v>
+      </c>
+      <c r="B43" s="1">
+        <v>8</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="1">
+        <v>175</v>
+      </c>
+      <c r="D43" s="2">
         <v>42</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>43</v>
+      <c r="E43" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F43" s="1">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G43" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="H43" s="1">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>44</v>
@@ -5452,28 +5518,28 @@
     </row>
     <row r="44" spans="1:9" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>153</v>
+        <v>24</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D44" s="2">
         <v>43</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>45</v>
+      <c r="E44" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F44" s="1">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G44" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="H44" s="1">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>44</v>
@@ -5481,13 +5547,13 @@
     </row>
     <row r="45" spans="1:9" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="1">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>153</v>
+        <v>83</v>
+      </c>
+      <c r="B45" s="7">
+        <v>72</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="D45" s="1">
         <v>44</v>
@@ -5496,13 +5562,13 @@
         <v>43</v>
       </c>
       <c r="F45" s="1">
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="G45" s="1">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="H45" s="1">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>44</v>
@@ -5510,28 +5576,28 @@
     </row>
     <row r="46" spans="1:9" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="7">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="B46" s="1">
+        <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="1">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2">
         <v>45</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>43</v>
+      <c r="E46" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F46" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G46" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H46" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>44</v>
@@ -5539,28 +5605,28 @@
     </row>
     <row r="47" spans="1:9" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D47" s="2">
         <v>46</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>45</v>
+      <c r="E47" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F47" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="H47" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>44</v>
@@ -5568,28 +5634,28 @@
     </row>
     <row r="48" spans="1:9" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="1">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="B48" s="7">
+        <v>72</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="1">
+        <v>151</v>
+      </c>
+      <c r="D48" s="2">
         <v>47</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H48" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>44</v>
@@ -5597,28 +5663,28 @@
     </row>
     <row r="49" spans="1:9" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="7">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1">
         <v>48</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>43</v>
+      <c r="E49" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F49" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G49" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="H49" s="1">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>44</v>
@@ -5626,28 +5692,28 @@
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D50" s="2">
         <v>49</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>45</v>
+      <c r="E50" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F50" s="1">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="G50" s="1">
-        <v>27500</v>
+        <v>50000</v>
       </c>
       <c r="H50" s="1">
-        <v>27500</v>
+        <v>50000</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>44</v>
@@ -5655,28 +5721,28 @@
     </row>
     <row r="51" spans="1:9" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="1">
-        <v>24</v>
+        <v>89</v>
+      </c>
+      <c r="B51" s="7">
+        <v>72</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="1">
+        <v>176</v>
+      </c>
+      <c r="D51" s="2">
         <v>50</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F51" s="1">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="G51" s="1">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="H51" s="1">
-        <v>55000</v>
+        <v>100000</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>44</v>
@@ -5684,28 +5750,28 @@
     </row>
     <row r="52" spans="1:9" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="7">
-        <v>72</v>
+        <v>90</v>
+      </c>
+      <c r="B52" s="1">
+        <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52" s="1">
+        <v>177</v>
+      </c>
+      <c r="D52" s="2">
         <v>51</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>43</v>
+      <c r="E52" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F52" s="1">
-        <v>2200</v>
+        <v>550</v>
       </c>
       <c r="G52" s="1">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="H52" s="1">
-        <v>110000</v>
+        <v>27500</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>44</v>
@@ -5713,28 +5779,28 @@
     </row>
     <row r="53" spans="1:9" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" s="2">
+        <v>177</v>
+      </c>
+      <c r="D53" s="1">
         <v>52</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>45</v>
+      <c r="E53" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F53" s="1">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G53" s="1">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="H53" s="1">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>44</v>
@@ -5742,28 +5808,28 @@
     </row>
     <row r="54" spans="1:9" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="1">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="B54" s="7">
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="1">
+        <v>177</v>
+      </c>
+      <c r="D54" s="2">
         <v>53</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F54" s="1">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="G54" s="1">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="H54" s="1">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>44</v>
@@ -5771,30 +5837,88 @@
     </row>
     <row r="55" spans="1:9" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="7">
+        <v>93</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="2">
+        <v>54</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="1">
+        <v>600</v>
+      </c>
+      <c r="G55" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H55" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="20" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="1">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="2">
+        <v>55</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G56" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H56" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="20" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="7">
         <v>72</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="1">
-        <v>54</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="C57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="1">
+        <v>56</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F57" s="1">
         <v>2400</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G57" s="1">
         <v>120000</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H57" s="1">
         <v>120000</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5832,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>39</v>
@@ -5844,18 +5968,18 @@
         <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="7">
         <v>10</v>
@@ -5864,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" s="7">
         <v>10</v>
@@ -5876,12 +6000,12 @@
         <v>500</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="7">
         <v>100</v>
@@ -5890,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="7">
         <v>100</v>
@@ -5902,12 +6026,12 @@
         <v>5000</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="7">
         <v>1000</v>
@@ -5916,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" s="7">
         <v>1000</v>
@@ -5928,12 +6052,12 @@
         <v>50000</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1">
         <v>0.1</v>
@@ -5959,7 +6083,7 @@
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -5985,7 +6109,7 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -6011,7 +6135,7 @@
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
@@ -6037,7 +6161,7 @@
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1">
         <v>150</v>
@@ -6063,7 +6187,7 @@
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1">
         <v>500</v>
@@ -6089,7 +6213,7 @@
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" s="7">
         <v>1500</v>
@@ -6115,7 +6239,7 @@
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1">
         <v>0.1</v>
@@ -6141,7 +6265,7 @@
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -6167,7 +6291,7 @@
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1">
         <v>10</v>
@@ -6193,7 +6317,7 @@
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1">
         <v>50</v>
@@ -6219,7 +6343,7 @@
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1">
         <v>150</v>
@@ -6245,7 +6369,7 @@
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1">
         <v>500</v>
@@ -6271,7 +6395,7 @@
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="7">
         <v>1500</v>
@@ -6297,7 +6421,7 @@
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1">
         <v>0.1</v>
@@ -6323,7 +6447,7 @@
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -6332,7 +6456,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -6344,12 +6468,12 @@
         <v>500</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1">
         <v>10</v>
@@ -6358,7 +6482,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1">
         <v>40</v>
@@ -6370,12 +6494,12 @@
         <v>2000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="1">
         <v>50</v>
@@ -6384,7 +6508,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1">
         <v>160</v>
@@ -6396,12 +6520,12 @@
         <v>8000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" s="1">
         <v>150</v>
@@ -6410,7 +6534,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1">
         <v>400</v>
@@ -6422,12 +6546,12 @@
         <v>20000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1">
         <v>500</v>
@@ -6436,7 +6560,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E24" s="1">
         <v>1200</v>
@@ -6448,12 +6572,12 @@
         <v>60000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="7">
         <v>1500</v>
@@ -6462,7 +6586,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1">
         <v>3300</v>
@@ -6474,12 +6598,12 @@
         <v>165000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" s="1">
         <v>0.1</v>
@@ -6488,7 +6612,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -6500,12 +6624,12 @@
         <v>50</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -6514,7 +6638,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
@@ -6526,12 +6650,12 @@
         <v>500</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="1">
         <v>10</v>
@@ -6540,7 +6664,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1">
         <v>40</v>
@@ -6552,12 +6676,12 @@
         <v>2000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1">
         <v>50</v>
@@ -6566,7 +6690,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1">
         <v>160</v>
@@ -6578,12 +6702,12 @@
         <v>8000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1">
         <v>150</v>
@@ -6592,7 +6716,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E30" s="1">
         <v>400</v>
@@ -6604,12 +6728,12 @@
         <v>20000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1">
         <v>500</v>
@@ -6618,7 +6742,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E31" s="7">
         <v>1200</v>
@@ -6630,12 +6754,12 @@
         <v>60000</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="7">
         <v>1500</v>
@@ -6644,7 +6768,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E32" s="7">
         <v>3300</v>
@@ -6656,12 +6780,12 @@
         <v>165000</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="7">
         <v>0.1</v>
@@ -6670,7 +6794,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
@@ -6682,12 +6806,12 @@
         <v>100</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="7">
         <v>2</v>
@@ -6696,7 +6820,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E34" s="7">
         <v>20</v>
@@ -6708,12 +6832,12 @@
         <v>1000</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" s="7">
         <v>10</v>
@@ -6722,7 +6846,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35" s="7">
         <v>80</v>
@@ -6734,12 +6858,12 @@
         <v>4000</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" s="7">
         <v>50</v>
@@ -6748,7 +6872,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E36" s="7">
         <v>320</v>
@@ -6760,12 +6884,12 @@
         <v>16000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="7">
         <v>150</v>
@@ -6774,7 +6898,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37" s="7">
         <v>800</v>
@@ -6786,12 +6910,12 @@
         <v>40000</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="7">
         <v>500</v>
@@ -6800,7 +6924,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" s="7">
         <v>2400</v>
@@ -6812,12 +6936,12 @@
         <v>120000</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B39" s="7">
         <v>1500</v>
@@ -6826,7 +6950,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E39" s="7">
         <v>6600</v>
@@ -6838,12 +6962,12 @@
         <v>330000</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B40" s="7">
         <v>0.2</v>
@@ -6869,7 +6993,7 @@
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B41" s="7">
         <v>0.5</v>
@@ -6895,7 +7019,7 @@
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
@@ -6916,12 +7040,12 @@
         <v>20000</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B43" s="7">
         <v>5</v>
@@ -6930,7 +7054,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E43" s="7">
         <v>250</v>
@@ -6942,12 +7066,12 @@
         <v>12500</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B44" s="7">
         <v>15</v>
@@ -6968,12 +7092,12 @@
         <v>25000</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B45" s="7">
         <v>60</v>
@@ -6994,12 +7118,12 @@
         <v>75000</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B46" s="7">
         <v>180</v>
@@ -7020,12 +7144,12 @@
         <v>180000</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B47" s="7">
         <v>500</v>
@@ -7046,7 +7170,7 @@
         <v>400000</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -7083,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>39</v>
@@ -7095,18 +7219,18 @@
         <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -7115,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -7127,12 +7251,12 @@
         <v>250</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -7141,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
@@ -7153,12 +7277,12 @@
         <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -7167,7 +7291,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -7179,12 +7303,12 @@
         <v>2500</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -7193,7 +7317,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1">
         <v>130</v>
@@ -7205,12 +7329,12 @@
         <v>6500</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
@@ -7219,7 +7343,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
@@ -7231,12 +7355,12 @@
         <v>15000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1">
         <v>480</v>
@@ -7245,7 +7369,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1">
         <v>650</v>
@@ -7257,12 +7381,12 @@
         <v>32500</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="7">
         <v>900</v>
@@ -7271,7 +7395,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1">
         <v>1000</v>
@@ -7283,12 +7407,12 @@
         <v>50000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1">
         <v>1440</v>
@@ -7309,12 +7433,12 @@
         <v>75000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1">
         <v>0.25</v>
@@ -7335,12 +7459,12 @@
         <v>7500</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -7361,7 +7485,7 @@
         <v>22500</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -7494,18 +7618,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" s="11">
         <v>0.25</v>
@@ -7514,7 +7638,7 @@
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" s="11">
         <v>0.5</v>
@@ -7523,7 +7647,7 @@
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11">
         <v>0.5</v>
@@ -7532,7 +7656,7 @@
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11">
         <v>0.5</v>
@@ -7541,7 +7665,7 @@
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" s="11">
         <v>0.5</v>
@@ -7550,7 +7674,7 @@
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" s="11">
         <v>0.5</v>
@@ -7559,7 +7683,7 @@
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B8" s="11">
         <v>0.5</v>
@@ -7568,7 +7692,7 @@
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" s="11">
         <v>0.3</v>
@@ -7577,7 +7701,7 @@
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="11">
         <v>0.3</v>
@@ -7586,7 +7710,7 @@
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" s="11">
         <v>0.3</v>
@@ -7595,7 +7719,7 @@
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="11">
         <v>0.3</v>
@@ -7604,7 +7728,7 @@
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B13" s="11">
         <v>0.2</v>
@@ -7613,7 +7737,7 @@
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="11">
         <v>0.2</v>
@@ -7622,7 +7746,7 @@
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" s="11">
         <v>0.2</v>
@@ -7631,7 +7755,7 @@
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" s="11">
         <v>0.2</v>
@@ -7640,7 +7764,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="11">
         <v>0.2</v>

--- a/gameData/shared/Items.xlsx
+++ b/gameData/shared/Items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="0" windowWidth="35720" windowHeight="17700" tabRatio="381" activeTab="1"/>
+    <workbookView xWindow="2420" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="381"/>
   </bookViews>
   <sheets>
     <sheet name="special" sheetId="2" r:id="rId1"/>
@@ -999,7 +999,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="788">
+  <cellStyleXfs count="812">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1014,6 +1014,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1841,14 +1865,418 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="788">
+  <cellStyles count="812">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="811" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -2238,398 +2666,18 @@
     <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="786" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="超链接" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="810" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3078,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3162,10 +3210,10 @@
         <v>1500</v>
       </c>
       <c r="F3" s="1">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="G3" s="1">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>158</v>
@@ -3188,10 +3236,10 @@
         <v>5000</v>
       </c>
       <c r="F4" s="1">
-        <v>250000</v>
+        <v>225000</v>
       </c>
       <c r="G4" s="1">
-        <v>250000</v>
+        <v>225000</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>159</v>
@@ -3292,10 +3340,10 @@
         <v>2600</v>
       </c>
       <c r="F8" s="1">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="G8" s="1">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>44</v>
@@ -3994,10 +4042,10 @@
         <v>450</v>
       </c>
       <c r="F35" s="1">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="G35" s="1">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>164</v>
@@ -4072,10 +4120,10 @@
         <v>100</v>
       </c>
       <c r="F38" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G38" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>164</v>
@@ -4098,10 +4146,10 @@
         <v>600</v>
       </c>
       <c r="F39" s="1">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="G39" s="1">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>164</v>
@@ -4150,10 +4198,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G41" s="12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>219</v>
@@ -4256,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5594,10 +5642,10 @@
         <v>500</v>
       </c>
       <c r="G46" s="1">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="H46" s="1">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>44</v>
@@ -5681,10 +5729,10 @@
         <v>500</v>
       </c>
       <c r="G49" s="1">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="H49" s="1">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>44</v>
@@ -5768,10 +5816,10 @@
         <v>550</v>
       </c>
       <c r="G52" s="1">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="H52" s="1">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>44</v>
@@ -5855,10 +5903,10 @@
         <v>600</v>
       </c>
       <c r="G55" s="1">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="H55" s="1">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>44</v>
@@ -5938,8 +5986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+    <sheetView showRuler="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7190,7 +7238,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7453,10 +7501,10 @@
         <v>120</v>
       </c>
       <c r="F10" s="1">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="G10" s="1">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>165</v>
@@ -7479,10 +7527,10 @@
         <v>200</v>
       </c>
       <c r="F11" s="1">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="1">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>165</v>
